--- a/Excel/WeaponWordBarsConfig.xlsx
+++ b/Excel/WeaponWordBarsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16E34B-7402-4AC8-A148-A19596A6A08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32012BF3-6445-4A9E-BFB7-EA4A1E9B71BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -114,12 +122,98 @@
     <t>词条配置表ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词条类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordBarType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#词条类型1攻击2防御3生命4暴击5暴伤6暴抗7加伤8免伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#数值类型1固定数值2百分比类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumberType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品阶icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityIcon</t>
+  </si>
+  <si>
+    <t>item_A</t>
+  </si>
+  <si>
+    <t>item_C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -174,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +296,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
@@ -207,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -215,8 +322,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,14 +357,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -556,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P33"/>
+  <dimension ref="A3:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134:L137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -577,27 +694,35 @@
   <sheetData>
     <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
@@ -609,27 +734,35 @@
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -649,16 +782,24 @@
       <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10000001</v>
@@ -667,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8">
         <v>1</v>
@@ -675,18 +816,28 @@
       <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7">
         <v>10000002</v>
@@ -695,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9">
         <v>5</v>
@@ -703,16 +854,27 @@
       <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8">
         <v>10000003</v>
@@ -721,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9">
         <v>11</v>
@@ -729,13 +891,21 @@
       <c r="G8" s="9">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8"/>
     </row>
@@ -748,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="9">
         <v>16</v>
@@ -756,13 +926,21 @@
       <c r="G9" s="9">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9"/>
     </row>
@@ -774,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9">
         <v>5</v>
@@ -782,13 +960,21 @@
       <c r="G10" s="10">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10"/>
     </row>
@@ -800,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9">
         <v>11</v>
@@ -808,13 +994,21 @@
       <c r="G11" s="10">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11"/>
       <c r="P11"/>
@@ -827,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>21</v>
@@ -835,13 +1029,21 @@
       <c r="G12" s="10">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12"/>
     </row>
@@ -853,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10">
         <v>31</v>
@@ -861,13 +1063,21 @@
       <c r="G13" s="10">
         <v>40</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
@@ -878,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="10">
         <v>10</v>
@@ -886,13 +1096,21 @@
       <c r="G14" s="10">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
@@ -903,21 +1121,29 @@
         <v>5</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="10">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G15" s="10">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
@@ -928,21 +1154,29 @@
         <v>5</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="10">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G16" s="10">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -953,21 +1187,29 @@
         <v>5</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="10">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G17" s="10">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -975,24 +1217,32 @@
         <v>10000013</v>
       </c>
       <c r="D18" s="9">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="H18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1000,24 +1250,32 @@
         <v>10000014</v>
       </c>
       <c r="D19" s="9">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="10">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1025,24 +1283,32 @@
         <v>10000015</v>
       </c>
       <c r="D20" s="9">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G20" s="10">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1050,24 +1316,32 @@
         <v>10000016</v>
       </c>
       <c r="D21" s="9">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="10">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G21" s="10">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1075,24 +1349,32 @@
         <v>10000017</v>
       </c>
       <c r="D22" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1100,24 +1382,32 @@
         <v>10000018</v>
       </c>
       <c r="D23" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1125,24 +1415,32 @@
         <v>10000019</v>
       </c>
       <c r="D24" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="10">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G24" s="10">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1150,24 +1448,32 @@
         <v>10000020</v>
       </c>
       <c r="D25" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" s="10">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="G25" s="10">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1177,22 +1483,30 @@
       <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>13</v>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="10">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1202,22 +1516,30 @@
       <c r="D27" s="9">
         <v>5</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G27" s="10">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1227,22 +1549,30 @@
       <c r="D28" s="9">
         <v>5</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
+      <c r="E28" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="10">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G28" s="10">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="14">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
@@ -1252,44 +1582,3487 @@
       <c r="D29" s="9">
         <v>5</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10">
+        <v>81</v>
+      </c>
+      <c r="G29" s="10">
+        <v>100</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>10000025</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>2</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>10000026</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F31" s="13">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>10000027</v>
+      </c>
+      <c r="D32" s="9">
+        <v>3</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="13">
+        <v>6</v>
+      </c>
+      <c r="G32" s="13">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>10000028</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="13">
+        <v>9</v>
+      </c>
+      <c r="G33" s="13">
         <v>10</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>10000029</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="13">
+        <v>3</v>
+      </c>
+      <c r="G34" s="13">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>10000030</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="13">
+        <v>6</v>
+      </c>
+      <c r="G35" s="13">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>10000031</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13">
+        <v>11</v>
+      </c>
+      <c r="G36" s="13">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>10000032</v>
+      </c>
+      <c r="D37" s="9">
+        <v>4</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13">
+        <v>16</v>
+      </c>
+      <c r="G37" s="13">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>10000033</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="13">
+        <v>5</v>
+      </c>
+      <c r="G38" s="13">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="11">
+        <v>2</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>10000034</v>
+      </c>
+      <c r="D39" s="9">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="13">
+        <v>11</v>
+      </c>
+      <c r="G39" s="13">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="11">
+        <v>2</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>10000035</v>
+      </c>
+      <c r="D40" s="9">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="13">
+        <v>21</v>
+      </c>
+      <c r="G40" s="13">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="11">
+        <v>2</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>10000036</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="13">
+        <v>31</v>
+      </c>
+      <c r="G41" s="13">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="11">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>10000037</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="J42" s="13">
+        <v>2</v>
+      </c>
+      <c r="K42" s="11">
+        <v>2</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>10000038</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="13">
+        <v>11</v>
+      </c>
+      <c r="G43" s="13">
+        <v>20</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="13">
+        <v>2</v>
+      </c>
+      <c r="K43" s="11">
+        <v>2</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>10000039</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="13">
+        <v>21</v>
+      </c>
+      <c r="G44" s="13">
+        <v>30</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2</v>
+      </c>
+      <c r="J44" s="13">
+        <v>2</v>
+      </c>
+      <c r="K44" s="11">
+        <v>2</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>10000040</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="13">
+        <v>31</v>
+      </c>
+      <c r="G45" s="13">
+        <v>50</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="13">
+        <v>2</v>
+      </c>
+      <c r="K45" s="11">
+        <v>2</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>10000041</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>15</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2</v>
+      </c>
+      <c r="J46" s="13">
+        <v>2</v>
+      </c>
+      <c r="K46" s="11">
+        <v>2</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>10000042</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="13">
+        <v>16</v>
+      </c>
+      <c r="G47" s="13">
+        <v>30</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="13">
+        <v>2</v>
+      </c>
+      <c r="K47" s="11">
+        <v>2</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>10000043</v>
+      </c>
+      <c r="D48" s="9">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="13">
+        <v>31</v>
+      </c>
+      <c r="G48" s="13">
+        <v>45</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="13">
+        <v>2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>2</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>10000044</v>
+      </c>
+      <c r="D49" s="9">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="13">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13">
+        <v>60</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="13">
+        <v>2</v>
+      </c>
+      <c r="K49" s="11">
+        <v>2</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>10000045</v>
+      </c>
+      <c r="D50" s="9">
+        <v>5</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="13">
+        <v>15</v>
+      </c>
+      <c r="G50" s="13">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="13">
+        <v>2</v>
+      </c>
+      <c r="K50" s="11">
+        <v>2</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>10000046</v>
+      </c>
+      <c r="D51" s="9">
+        <v>5</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="13">
+        <v>31</v>
+      </c>
+      <c r="G51" s="13">
+        <v>40</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+      <c r="J51" s="13">
+        <v>2</v>
+      </c>
+      <c r="K51" s="11">
+        <v>2</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>10000047</v>
+      </c>
+      <c r="D52" s="9">
+        <v>5</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="13">
+        <v>41</v>
+      </c>
+      <c r="G52" s="13">
+        <v>80</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2</v>
+      </c>
+      <c r="J52" s="13">
+        <v>2</v>
+      </c>
+      <c r="K52" s="11">
+        <v>2</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>10000048</v>
+      </c>
+      <c r="D53" s="9">
+        <v>5</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="13">
+        <v>81</v>
+      </c>
+      <c r="G53" s="13">
+        <v>100</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2</v>
+      </c>
+      <c r="J53" s="13">
+        <v>2</v>
+      </c>
+      <c r="K53" s="11">
+        <v>2</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>10000049</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1">
+        <v>50</v>
+      </c>
+      <c r="G54" s="1">
+        <v>250</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="11">
+        <v>2</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>10000050</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="13">
+        <v>251</v>
+      </c>
+      <c r="G55" s="13">
+        <v>500</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="11">
+        <v>2</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>10000051</v>
+      </c>
+      <c r="D56" s="9">
+        <v>3</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="13">
+        <v>501</v>
+      </c>
+      <c r="G56" s="13">
+        <v>750</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="11">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>10000052</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="13">
+        <v>751</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
+        <v>2</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>10000053</v>
+      </c>
+      <c r="D58" s="9">
+        <v>4</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="13">
+        <v>250</v>
+      </c>
+      <c r="G58" s="13">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="11">
+        <v>2</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>10000054</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="13">
+        <v>501</v>
+      </c>
+      <c r="G59" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="11">
+        <v>2</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>10000055</v>
+      </c>
+      <c r="D60" s="9">
+        <v>4</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1001</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="11">
+        <v>2</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>10000056</v>
+      </c>
+      <c r="D61" s="9">
+        <v>4</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1501</v>
+      </c>
+      <c r="G61" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="11">
+        <v>2</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>10000057</v>
+      </c>
+      <c r="D62" s="9">
+        <v>5</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="13">
+        <v>500</v>
+      </c>
+      <c r="G62" s="13">
+        <v>1250</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="1">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11">
+        <v>2</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>10000058</v>
+      </c>
+      <c r="D63" s="9">
+        <v>5</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1251</v>
+      </c>
+      <c r="G63" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="11">
+        <v>2</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>10000059</v>
+      </c>
+      <c r="D64" s="9">
+        <v>5</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="13">
+        <v>2001</v>
+      </c>
+      <c r="G64" s="13">
+        <v>2750</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <v>2</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>10000060</v>
+      </c>
+      <c r="D65" s="9">
+        <v>5</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2751</v>
+      </c>
+      <c r="G65" s="13">
+        <v>3500</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="11">
+        <v>2</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>10000061</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3</v>
+      </c>
+      <c r="J66" s="13">
+        <v>2</v>
+      </c>
+      <c r="K66" s="11">
+        <v>2</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>10000062</v>
+      </c>
+      <c r="D67" s="9">
+        <v>3</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="13">
+        <v>11</v>
+      </c>
+      <c r="G67" s="13">
+        <v>20</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="13">
+        <v>2</v>
+      </c>
+      <c r="K67" s="11">
+        <v>2</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>10000063</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="13">
+        <v>21</v>
+      </c>
+      <c r="G68" s="13">
+        <v>30</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="1">
+        <v>3</v>
+      </c>
+      <c r="J68" s="13">
+        <v>2</v>
+      </c>
+      <c r="K68" s="11">
+        <v>2</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>10000064</v>
+      </c>
+      <c r="D69" s="9">
+        <v>3</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="13">
+        <v>31</v>
+      </c>
+      <c r="G69" s="13">
+        <v>50</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1">
+        <v>3</v>
+      </c>
+      <c r="J69" s="13">
+        <v>2</v>
+      </c>
+      <c r="K69" s="11">
+        <v>2</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>10000065</v>
+      </c>
+      <c r="D70" s="9">
+        <v>4</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13">
+        <v>15</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="1">
+        <v>3</v>
+      </c>
+      <c r="J70" s="13">
+        <v>2</v>
+      </c>
+      <c r="K70" s="11">
+        <v>2</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>10000066</v>
+      </c>
+      <c r="D71" s="9">
+        <v>4</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="13">
+        <v>16</v>
+      </c>
+      <c r="G71" s="13">
+        <v>30</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="1">
+        <v>3</v>
+      </c>
+      <c r="J71" s="13">
+        <v>2</v>
+      </c>
+      <c r="K71" s="11">
+        <v>2</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>10000067</v>
+      </c>
+      <c r="D72" s="9">
+        <v>4</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="13">
+        <v>31</v>
+      </c>
+      <c r="G72" s="13">
+        <v>45</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="1">
+        <v>3</v>
+      </c>
+      <c r="J72" s="13">
+        <v>2</v>
+      </c>
+      <c r="K72" s="11">
+        <v>2</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>10000068</v>
+      </c>
+      <c r="D73" s="9">
+        <v>4</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="13">
+        <v>46</v>
+      </c>
+      <c r="G73" s="13">
+        <v>60</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="1">
+        <v>3</v>
+      </c>
+      <c r="J73" s="13">
+        <v>2</v>
+      </c>
+      <c r="K73" s="11">
+        <v>2</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>10000069</v>
+      </c>
+      <c r="D74" s="9">
+        <v>5</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="13">
+        <v>15</v>
+      </c>
+      <c r="G74" s="13">
+        <v>20</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+      <c r="J74" s="13">
+        <v>2</v>
+      </c>
+      <c r="K74" s="11">
+        <v>2</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <v>10000070</v>
+      </c>
+      <c r="D75" s="9">
+        <v>5</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="13">
+        <v>21</v>
+      </c>
+      <c r="G75" s="13">
+        <v>40</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+      <c r="J75" s="13">
+        <v>2</v>
+      </c>
+      <c r="K75" s="11">
+        <v>2</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <v>10000071</v>
+      </c>
+      <c r="D76" s="9">
+        <v>5</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="13">
+        <v>41</v>
+      </c>
+      <c r="G76" s="13">
+        <v>80</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3</v>
+      </c>
+      <c r="J76" s="13">
+        <v>2</v>
+      </c>
+      <c r="K76" s="11">
+        <v>2</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <v>10000072</v>
+      </c>
+      <c r="D77" s="9">
+        <v>5</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="13">
+        <v>81</v>
+      </c>
+      <c r="G77" s="13">
+        <v>100</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="1">
+        <v>3</v>
+      </c>
+      <c r="J77" s="13">
+        <v>2</v>
+      </c>
+      <c r="K77" s="11">
+        <v>2</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <v>10000073</v>
+      </c>
+      <c r="D78" s="9">
+        <v>3</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+      <c r="G78" s="13">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="13">
+        <v>4</v>
+      </c>
+      <c r="J78" s="13">
+        <v>2</v>
+      </c>
+      <c r="K78" s="12">
+        <v>1</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>10000074</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="13">
+        <v>6</v>
+      </c>
+      <c r="G79" s="13">
+        <v>10</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="13">
+        <v>4</v>
+      </c>
+      <c r="J79" s="13">
+        <v>2</v>
+      </c>
+      <c r="K79" s="12">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <v>10000075</v>
+      </c>
+      <c r="D80" s="9">
+        <v>3</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="13">
+        <v>11</v>
+      </c>
+      <c r="G80" s="13">
+        <v>15</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="13">
+        <v>4</v>
+      </c>
+      <c r="J80" s="13">
+        <v>2</v>
+      </c>
+      <c r="K80" s="12">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>10000076</v>
+      </c>
+      <c r="D81" s="9">
+        <v>3</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="13">
+        <v>16</v>
+      </c>
+      <c r="G81" s="13">
         <v>25</v>
       </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="H81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="13">
+        <v>4</v>
+      </c>
+      <c r="J81" s="13">
+        <v>2</v>
+      </c>
+      <c r="K81" s="12">
+        <v>1</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>10000077</v>
+      </c>
+      <c r="D82" s="9">
+        <v>4</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="13">
+        <v>5</v>
+      </c>
+      <c r="G82" s="13">
+        <v>10</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" s="13">
+        <v>4</v>
+      </c>
+      <c r="J82" s="13">
+        <v>2</v>
+      </c>
+      <c r="K82" s="12">
+        <v>1</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>10000078</v>
+      </c>
+      <c r="D83" s="9">
+        <v>4</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="13">
+        <v>11</v>
+      </c>
+      <c r="G83" s="13">
+        <v>15</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="13">
+        <v>4</v>
+      </c>
+      <c r="J83" s="13">
+        <v>2</v>
+      </c>
+      <c r="K83" s="12">
+        <v>1</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>10000079</v>
+      </c>
+      <c r="D84" s="9">
+        <v>4</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="13">
+        <v>16</v>
+      </c>
+      <c r="G84" s="13">
+        <v>25</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="13">
+        <v>4</v>
+      </c>
+      <c r="J84" s="13">
+        <v>2</v>
+      </c>
+      <c r="K84" s="12">
+        <v>1</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>10000080</v>
+      </c>
+      <c r="D85" s="9">
+        <v>4</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="13">
+        <v>26</v>
+      </c>
+      <c r="G85" s="13">
+        <v>30</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="13">
+        <v>4</v>
+      </c>
+      <c r="J85" s="13">
+        <v>2</v>
+      </c>
+      <c r="K85" s="12">
+        <v>1</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <v>10000081</v>
+      </c>
+      <c r="D86" s="9">
+        <v>5</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="13">
+        <v>11</v>
+      </c>
+      <c r="G86" s="13">
+        <v>15</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="13">
+        <v>4</v>
+      </c>
+      <c r="J86" s="13">
+        <v>2</v>
+      </c>
+      <c r="K86" s="12">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <v>10000082</v>
+      </c>
+      <c r="D87" s="9">
+        <v>5</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="13">
+        <v>16</v>
+      </c>
+      <c r="G87" s="13">
+        <v>25</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="13">
+        <v>4</v>
+      </c>
+      <c r="J87" s="13">
+        <v>2</v>
+      </c>
+      <c r="K87" s="12">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <v>10000083</v>
+      </c>
+      <c r="D88" s="9">
+        <v>5</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="13">
+        <v>26</v>
+      </c>
+      <c r="G88" s="13">
+        <v>30</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="13">
+        <v>4</v>
+      </c>
+      <c r="J88" s="13">
+        <v>2</v>
+      </c>
+      <c r="K88" s="12">
+        <v>1</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C89">
+        <v>10000084</v>
+      </c>
+      <c r="D89" s="9">
+        <v>5</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="13">
+        <v>31</v>
+      </c>
+      <c r="G89" s="13">
+        <v>50</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="13">
+        <v>4</v>
+      </c>
+      <c r="J89" s="13">
+        <v>2</v>
+      </c>
+      <c r="K89" s="12">
+        <v>1</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <v>10000085</v>
+      </c>
+      <c r="D90" s="9">
+        <v>3</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="13">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13">
+        <v>2</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" s="13">
+        <v>5</v>
+      </c>
+      <c r="J90" s="13">
+        <v>2</v>
+      </c>
+      <c r="K90" s="11">
+        <v>3</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <v>10000086</v>
+      </c>
+      <c r="D91" s="9">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="13">
+        <v>21</v>
+      </c>
+      <c r="G91" s="13">
+        <v>40</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" s="13">
+        <v>5</v>
+      </c>
+      <c r="J91" s="13">
+        <v>2</v>
+      </c>
+      <c r="K91" s="11">
+        <v>3</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <v>10000087</v>
+      </c>
+      <c r="D92" s="9">
+        <v>3</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="13">
+        <v>41</v>
+      </c>
+      <c r="G92" s="13">
+        <v>60</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="13">
+        <v>5</v>
+      </c>
+      <c r="J92" s="13">
+        <v>2</v>
+      </c>
+      <c r="K92" s="11">
+        <v>3</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C93">
+        <v>10000088</v>
+      </c>
+      <c r="D93" s="9">
+        <v>3</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="13">
+        <v>60</v>
+      </c>
+      <c r="G93" s="13">
+        <v>100</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" s="13">
+        <v>5</v>
+      </c>
+      <c r="J93" s="13">
+        <v>2</v>
+      </c>
+      <c r="K93" s="11">
+        <v>3</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <v>10000089</v>
+      </c>
+      <c r="D94" s="9">
+        <v>4</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13">
+        <v>30</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="13">
+        <v>5</v>
+      </c>
+      <c r="J94" s="13">
+        <v>2</v>
+      </c>
+      <c r="K94" s="11">
+        <v>3</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <v>10000090</v>
+      </c>
+      <c r="D95" s="9">
+        <v>4</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="13">
+        <v>31</v>
+      </c>
+      <c r="G95" s="13">
+        <v>60</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I95" s="13">
+        <v>5</v>
+      </c>
+      <c r="J95" s="13">
+        <v>2</v>
+      </c>
+      <c r="K95" s="11">
+        <v>3</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <v>10000091</v>
+      </c>
+      <c r="D96" s="9">
+        <v>4</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="13">
+        <v>61</v>
+      </c>
+      <c r="G96" s="13">
+        <v>60</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" s="13">
+        <v>5</v>
+      </c>
+      <c r="J96" s="13">
+        <v>2</v>
+      </c>
+      <c r="K96" s="11">
+        <v>3</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <v>10000092</v>
+      </c>
+      <c r="D97" s="9">
+        <v>4</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="13">
+        <v>91</v>
+      </c>
+      <c r="G97" s="13">
+        <v>120</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="13">
+        <v>5</v>
+      </c>
+      <c r="J97" s="13">
+        <v>2</v>
+      </c>
+      <c r="K97" s="11">
+        <v>3</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <v>10000093</v>
+      </c>
+      <c r="D98" s="9">
+        <v>5</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="13">
+        <v>30</v>
+      </c>
+      <c r="G98" s="13">
+        <v>40</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" s="13">
+        <v>5</v>
+      </c>
+      <c r="J98" s="13">
+        <v>2</v>
+      </c>
+      <c r="K98" s="11">
+        <v>3</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>10000094</v>
+      </c>
+      <c r="D99" s="9">
+        <v>5</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="13">
+        <v>41</v>
+      </c>
+      <c r="G99" s="13">
+        <v>80</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="13">
+        <v>5</v>
+      </c>
+      <c r="J99" s="13">
+        <v>2</v>
+      </c>
+      <c r="K99" s="11">
+        <v>3</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <v>10000095</v>
+      </c>
+      <c r="D100" s="9">
+        <v>5</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="13">
+        <v>81</v>
+      </c>
+      <c r="G100" s="13">
+        <v>160</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="13">
+        <v>5</v>
+      </c>
+      <c r="J100" s="13">
+        <v>2</v>
+      </c>
+      <c r="K100" s="11">
+        <v>3</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>10000096</v>
+      </c>
+      <c r="D101" s="9">
+        <v>5</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="13">
+        <v>161</v>
+      </c>
+      <c r="G101" s="13">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="13">
+        <v>5</v>
+      </c>
+      <c r="J101" s="13">
+        <v>2</v>
+      </c>
+      <c r="K101" s="11">
+        <v>3</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C102">
+        <v>10000097</v>
+      </c>
+      <c r="D102" s="9">
+        <v>3</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" s="13">
+        <v>6</v>
+      </c>
+      <c r="J102" s="13">
+        <v>2</v>
+      </c>
+      <c r="K102" s="14">
+        <v>4</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C103">
+        <v>10000098</v>
+      </c>
+      <c r="D103" s="9">
+        <v>3</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="13">
+        <v>6</v>
+      </c>
+      <c r="G103" s="13">
+        <v>10</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I103" s="13">
+        <v>6</v>
+      </c>
+      <c r="J103" s="13">
+        <v>2</v>
+      </c>
+      <c r="K103" s="14">
+        <v>4</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C104">
+        <v>10000099</v>
+      </c>
+      <c r="D104" s="9">
+        <v>3</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="13">
+        <v>11</v>
+      </c>
+      <c r="G104" s="13">
+        <v>15</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" s="13">
+        <v>6</v>
+      </c>
+      <c r="J104" s="13">
+        <v>2</v>
+      </c>
+      <c r="K104" s="14">
+        <v>4</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C105">
+        <v>10000100</v>
+      </c>
+      <c r="D105" s="9">
+        <v>3</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="13">
+        <v>16</v>
+      </c>
+      <c r="G105" s="13">
+        <v>25</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" s="13">
+        <v>6</v>
+      </c>
+      <c r="J105" s="13">
+        <v>2</v>
+      </c>
+      <c r="K105" s="14">
+        <v>4</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <v>10000101</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="13">
+        <v>5</v>
+      </c>
+      <c r="G106" s="13">
+        <v>10</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" s="13">
+        <v>6</v>
+      </c>
+      <c r="J106" s="13">
+        <v>2</v>
+      </c>
+      <c r="K106" s="14">
+        <v>4</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <v>10000102</v>
+      </c>
+      <c r="D107" s="9">
+        <v>4</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="13">
+        <v>11</v>
+      </c>
+      <c r="G107" s="13">
+        <v>15</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" s="13">
+        <v>6</v>
+      </c>
+      <c r="J107" s="13">
+        <v>2</v>
+      </c>
+      <c r="K107" s="14">
+        <v>4</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>10000103</v>
+      </c>
+      <c r="D108" s="9">
+        <v>4</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="13">
+        <v>16</v>
+      </c>
+      <c r="G108" s="13">
+        <v>25</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="13">
+        <v>6</v>
+      </c>
+      <c r="J108" s="13">
+        <v>2</v>
+      </c>
+      <c r="K108" s="14">
+        <v>4</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <v>10000104</v>
+      </c>
+      <c r="D109" s="9">
+        <v>4</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="13">
+        <v>26</v>
+      </c>
+      <c r="G109" s="13">
+        <v>30</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" s="13">
+        <v>6</v>
+      </c>
+      <c r="J109" s="13">
+        <v>2</v>
+      </c>
+      <c r="K109" s="14">
+        <v>4</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <v>10000105</v>
+      </c>
+      <c r="D110" s="9">
+        <v>5</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="13">
+        <v>11</v>
+      </c>
+      <c r="G110" s="13">
+        <v>15</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="13">
+        <v>6</v>
+      </c>
+      <c r="J110" s="13">
+        <v>2</v>
+      </c>
+      <c r="K110" s="14">
+        <v>4</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <v>10000106</v>
+      </c>
+      <c r="D111" s="9">
+        <v>5</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="13">
+        <v>15</v>
+      </c>
+      <c r="G111" s="13">
+        <v>25</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" s="13">
+        <v>6</v>
+      </c>
+      <c r="J111" s="13">
+        <v>2</v>
+      </c>
+      <c r="K111" s="14">
+        <v>4</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C112">
+        <v>10000107</v>
+      </c>
+      <c r="D112" s="9">
+        <v>5</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="13">
+        <v>26</v>
+      </c>
+      <c r="G112" s="13">
+        <v>30</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" s="13">
+        <v>6</v>
+      </c>
+      <c r="J112" s="13">
+        <v>2</v>
+      </c>
+      <c r="K112" s="14">
+        <v>4</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C113">
+        <v>10000108</v>
+      </c>
+      <c r="D113" s="9">
+        <v>5</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="13">
+        <v>31</v>
+      </c>
+      <c r="G113" s="13">
+        <v>50</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I113" s="13">
+        <v>6</v>
+      </c>
+      <c r="J113" s="13">
+        <v>2</v>
+      </c>
+      <c r="K113" s="14">
+        <v>4</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C114">
+        <v>10000109</v>
+      </c>
+      <c r="D114" s="9">
+        <v>3</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="13">
+        <v>1</v>
+      </c>
+      <c r="G114" s="13">
+        <v>5</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" s="13">
+        <v>7</v>
+      </c>
+      <c r="J114" s="13">
+        <v>2</v>
+      </c>
+      <c r="K114" s="11">
+        <v>3</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <v>10000110</v>
+      </c>
+      <c r="D115" s="9">
+        <v>3</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="13">
+        <v>6</v>
+      </c>
+      <c r="G115" s="13">
+        <v>10</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" s="13">
+        <v>7</v>
+      </c>
+      <c r="J115" s="13">
+        <v>2</v>
+      </c>
+      <c r="K115" s="11">
+        <v>3</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C116">
+        <v>10000111</v>
+      </c>
+      <c r="D116" s="9">
+        <v>3</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="13">
+        <v>11</v>
+      </c>
+      <c r="G116" s="13">
+        <v>15</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="13">
+        <v>7</v>
+      </c>
+      <c r="J116" s="13">
+        <v>2</v>
+      </c>
+      <c r="K116" s="11">
+        <v>3</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C117">
+        <v>10000112</v>
+      </c>
+      <c r="D117" s="9">
+        <v>3</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="13">
+        <v>16</v>
+      </c>
+      <c r="G117" s="13">
+        <v>25</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I117" s="13">
+        <v>7</v>
+      </c>
+      <c r="J117" s="13">
+        <v>2</v>
+      </c>
+      <c r="K117" s="11">
+        <v>3</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <v>10000113</v>
+      </c>
+      <c r="D118" s="9">
+        <v>4</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="13">
+        <v>5</v>
+      </c>
+      <c r="G118" s="13">
+        <v>10</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="13">
+        <v>7</v>
+      </c>
+      <c r="J118" s="13">
+        <v>2</v>
+      </c>
+      <c r="K118" s="11">
+        <v>3</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C119">
+        <v>10000114</v>
+      </c>
+      <c r="D119" s="9">
+        <v>4</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="13">
+        <v>11</v>
+      </c>
+      <c r="G119" s="13">
+        <v>15</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" s="13">
+        <v>7</v>
+      </c>
+      <c r="J119" s="13">
+        <v>2</v>
+      </c>
+      <c r="K119" s="11">
+        <v>3</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <v>10000115</v>
+      </c>
+      <c r="D120" s="9">
+        <v>4</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="13">
+        <v>16</v>
+      </c>
+      <c r="G120" s="13">
+        <v>25</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I120" s="13">
+        <v>7</v>
+      </c>
+      <c r="J120" s="13">
+        <v>2</v>
+      </c>
+      <c r="K120" s="11">
+        <v>3</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C121">
+        <v>10000116</v>
+      </c>
+      <c r="D121" s="9">
+        <v>4</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="13">
+        <v>26</v>
+      </c>
+      <c r="G121" s="13">
+        <v>30</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" s="13">
+        <v>7</v>
+      </c>
+      <c r="J121" s="13">
+        <v>2</v>
+      </c>
+      <c r="K121" s="11">
+        <v>3</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C122">
+        <v>10000117</v>
+      </c>
+      <c r="D122" s="9">
+        <v>5</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="13">
+        <v>11</v>
+      </c>
+      <c r="G122" s="13">
+        <v>15</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I122" s="13">
+        <v>7</v>
+      </c>
+      <c r="J122" s="13">
+        <v>2</v>
+      </c>
+      <c r="K122" s="11">
+        <v>3</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C123">
+        <v>10000118</v>
+      </c>
+      <c r="D123" s="9">
+        <v>5</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="13">
+        <v>15</v>
+      </c>
+      <c r="G123" s="13">
+        <v>25</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" s="13">
+        <v>7</v>
+      </c>
+      <c r="J123" s="13">
+        <v>2</v>
+      </c>
+      <c r="K123" s="11">
+        <v>3</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C124">
+        <v>10000119</v>
+      </c>
+      <c r="D124" s="9">
+        <v>5</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="13">
+        <v>26</v>
+      </c>
+      <c r="G124" s="13">
+        <v>30</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I124" s="13">
+        <v>7</v>
+      </c>
+      <c r="J124" s="13">
+        <v>2</v>
+      </c>
+      <c r="K124" s="11">
+        <v>3</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C125">
+        <v>10000120</v>
+      </c>
+      <c r="D125" s="9">
+        <v>5</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="13">
+        <v>31</v>
+      </c>
+      <c r="G125" s="13">
+        <v>50</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="13">
+        <v>7</v>
+      </c>
+      <c r="J125" s="13">
+        <v>2</v>
+      </c>
+      <c r="K125" s="11">
+        <v>3</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C126">
+        <v>10000121</v>
+      </c>
+      <c r="D126" s="9">
+        <v>3</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="13">
+        <v>1</v>
+      </c>
+      <c r="G126" s="13">
+        <v>5</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" s="13">
+        <v>8</v>
+      </c>
+      <c r="J126" s="13">
+        <v>2</v>
+      </c>
+      <c r="K126" s="14">
+        <v>4</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C127">
+        <v>10000122</v>
+      </c>
+      <c r="D127" s="9">
+        <v>3</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="13">
+        <v>6</v>
+      </c>
+      <c r="G127" s="13">
+        <v>10</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I127" s="13">
+        <v>8</v>
+      </c>
+      <c r="J127" s="13">
+        <v>2</v>
+      </c>
+      <c r="K127" s="14">
+        <v>4</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C128">
+        <v>10000123</v>
+      </c>
+      <c r="D128" s="9">
+        <v>3</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="13">
+        <v>11</v>
+      </c>
+      <c r="G128" s="13">
+        <v>15</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" s="13">
+        <v>8</v>
+      </c>
+      <c r="J128" s="13">
+        <v>2</v>
+      </c>
+      <c r="K128" s="14">
+        <v>4</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C129">
+        <v>10000124</v>
+      </c>
+      <c r="D129" s="9">
+        <v>3</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="13">
+        <v>16</v>
+      </c>
+      <c r="G129" s="13">
+        <v>25</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I129" s="13">
+        <v>8</v>
+      </c>
+      <c r="J129" s="13">
+        <v>2</v>
+      </c>
+      <c r="K129" s="14">
+        <v>4</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C130">
+        <v>10000125</v>
+      </c>
+      <c r="D130" s="9">
+        <v>4</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="13">
+        <v>5</v>
+      </c>
+      <c r="G130" s="13">
+        <v>10</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="13">
+        <v>8</v>
+      </c>
+      <c r="J130" s="13">
+        <v>2</v>
+      </c>
+      <c r="K130" s="14">
+        <v>4</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C131">
+        <v>10000126</v>
+      </c>
+      <c r="D131" s="9">
+        <v>4</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="13">
+        <v>11</v>
+      </c>
+      <c r="G131" s="13">
+        <v>15</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" s="13">
+        <v>8</v>
+      </c>
+      <c r="J131" s="13">
+        <v>2</v>
+      </c>
+      <c r="K131" s="14">
+        <v>4</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C132">
+        <v>10000127</v>
+      </c>
+      <c r="D132" s="9">
+        <v>4</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="13">
+        <v>16</v>
+      </c>
+      <c r="G132" s="13">
+        <v>25</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" s="13">
+        <v>8</v>
+      </c>
+      <c r="J132" s="13">
+        <v>2</v>
+      </c>
+      <c r="K132" s="14">
+        <v>4</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C133">
+        <v>10000128</v>
+      </c>
+      <c r="D133" s="9">
+        <v>4</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="13">
+        <v>26</v>
+      </c>
+      <c r="G133" s="13">
+        <v>30</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" s="13">
+        <v>8</v>
+      </c>
+      <c r="J133" s="13">
+        <v>2</v>
+      </c>
+      <c r="K133" s="14">
+        <v>4</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C134">
+        <v>10000129</v>
+      </c>
+      <c r="D134" s="9">
+        <v>5</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="13">
+        <v>11</v>
+      </c>
+      <c r="G134" s="13">
+        <v>15</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" s="13">
+        <v>8</v>
+      </c>
+      <c r="J134" s="13">
+        <v>2</v>
+      </c>
+      <c r="K134" s="14">
+        <v>4</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C135">
+        <v>10000130</v>
+      </c>
+      <c r="D135" s="9">
+        <v>5</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="13">
+        <v>15</v>
+      </c>
+      <c r="G135" s="13">
+        <v>25</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I135" s="13">
+        <v>8</v>
+      </c>
+      <c r="J135" s="13">
+        <v>2</v>
+      </c>
+      <c r="K135" s="14">
+        <v>4</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C136">
+        <v>10000131</v>
+      </c>
+      <c r="D136" s="9">
+        <v>5</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="13">
+        <v>26</v>
+      </c>
+      <c r="G136" s="13">
+        <v>30</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I136" s="13">
+        <v>8</v>
+      </c>
+      <c r="J136" s="13">
+        <v>2</v>
+      </c>
+      <c r="K136" s="14">
+        <v>4</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="C137">
+        <v>10000132</v>
+      </c>
+      <c r="D137" s="9">
+        <v>5</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="13">
+        <v>31</v>
+      </c>
+      <c r="G137" s="13">
+        <v>50</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I137" s="13">
+        <v>8</v>
+      </c>
+      <c r="J137" s="13">
+        <v>2</v>
+      </c>
+      <c r="K137" s="14">
+        <v>4</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/WeaponWordBarsConfig.xlsx
+++ b/Excel/WeaponWordBarsConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32012BF3-6445-4A9E-BFB7-EA4A1E9B71BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710FABE-E571-4173-A073-8D5E4F1CBB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponWordBarsConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -208,6 +208,14 @@
     <t>item_S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>成长系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coefficient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,9 +350,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134:L137"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -723,7 +728,9 @@
       <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
@@ -757,7 +764,9 @@
       <c r="L4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
@@ -794,47 +803,51 @@
       <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6">
         <v>10000001</v>
       </c>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>4</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:16" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -842,36 +855,38 @@
       <c r="C7">
         <v>10000002</v>
       </c>
-      <c r="D7" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -879,743 +894,787 @@
       <c r="C8">
         <v>10000003</v>
       </c>
-      <c r="D8" s="9">
-        <v>3</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>11</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>15</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="1">
+        <v>3</v>
+      </c>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9">
         <v>10000004</v>
       </c>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>16</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>10000005</v>
       </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>10000006</v>
       </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>11</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>20</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
       <c r="N11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>10000007</v>
       </c>
-      <c r="D12" s="9">
-        <v>4</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>21</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>10000008</v>
       </c>
-      <c r="D13" s="9">
-        <v>4</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>31</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>10000009</v>
       </c>
-      <c r="D14" s="9">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="8">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>25</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>10000010</v>
       </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="8">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>26</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>10000011</v>
       </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="8">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>41</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>55</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>10000012</v>
       </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="8">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>56</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>70</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>10000013</v>
       </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="8">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="7">
         <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <v>100</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>10000014</v>
       </c>
-      <c r="D19" s="9">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="10">
-        <v>11</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="9">
+        <v>110</v>
+      </c>
+      <c r="G19" s="9">
         <v>20</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>1</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>10000015</v>
       </c>
-      <c r="D20" s="9">
-        <v>3</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="10">
-        <v>21</v>
-      </c>
-      <c r="G20" s="10">
-        <v>31</v>
+      <c r="F20" s="9">
+        <v>210</v>
+      </c>
+      <c r="G20" s="9">
+        <v>310</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>10000016</v>
       </c>
-      <c r="D21" s="9">
-        <v>3</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="10">
-        <v>31</v>
-      </c>
-      <c r="G21" s="10">
-        <v>50</v>
+      <c r="F21" s="9">
+        <v>310</v>
+      </c>
+      <c r="G21" s="9">
+        <v>500</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>1</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>10000017</v>
       </c>
-      <c r="D22" s="9">
-        <v>4</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>15</v>
+      <c r="F22" s="9">
+        <v>100</v>
+      </c>
+      <c r="G22" s="9">
+        <v>150</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>1</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>10000018</v>
       </c>
-      <c r="D23" s="9">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="10">
-        <v>16</v>
-      </c>
-      <c r="G23" s="10">
-        <v>30</v>
+      <c r="F23" s="9">
+        <v>160</v>
+      </c>
+      <c r="G23" s="9">
+        <v>300</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>1</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>10000019</v>
       </c>
-      <c r="D24" s="9">
-        <v>4</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10">
-        <v>31</v>
-      </c>
-      <c r="G24" s="10">
-        <v>45</v>
+      <c r="F24" s="9">
+        <v>310</v>
+      </c>
+      <c r="G24" s="9">
+        <v>450</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>1</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>1</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>10000020</v>
       </c>
-      <c r="D25" s="9">
-        <v>4</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="10">
-        <v>46</v>
-      </c>
-      <c r="G25" s="10">
-        <v>60</v>
+      <c r="F25" s="9">
+        <v>460</v>
+      </c>
+      <c r="G25" s="9">
+        <v>600</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>1</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>10000021</v>
       </c>
-      <c r="D26" s="9">
-        <v>5</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="10">
-        <v>15</v>
-      </c>
-      <c r="G26" s="10">
-        <v>20</v>
+      <c r="F26" s="9">
+        <v>150</v>
+      </c>
+      <c r="G26" s="9">
+        <v>200</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>10000022</v>
       </c>
-      <c r="D27" s="9">
-        <v>5</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="10">
-        <v>21</v>
-      </c>
-      <c r="G27" s="10">
-        <v>40</v>
+      <c r="F27" s="9">
+        <v>210</v>
+      </c>
+      <c r="G27" s="9">
+        <v>400</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>1</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>10000023</v>
       </c>
-      <c r="D28" s="9">
-        <v>5</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="10">
-        <v>41</v>
-      </c>
-      <c r="G28" s="10">
-        <v>80</v>
+      <c r="F28" s="9">
+        <v>410</v>
+      </c>
+      <c r="G28" s="9">
+        <v>800</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>1</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>10000024</v>
       </c>
-      <c r="D29" s="9">
-        <v>5</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="8">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="10">
-        <v>81</v>
-      </c>
-      <c r="G29" s="10">
-        <v>100</v>
+      <c r="F29" s="9">
+        <v>810</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1000</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>1</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>10000025</v>
       </c>
-      <c r="D30" s="9">
-        <v>3</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="1">
@@ -1633,27 +1692,30 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>2</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="M30" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>10000026</v>
       </c>
-      <c r="D31" s="9">
-        <v>3</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="13">
-        <v>3</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="12">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12">
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -1665,27 +1727,30 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>2</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>43</v>
+      </c>
+      <c r="M31" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>10000027</v>
       </c>
-      <c r="D32" s="9">
-        <v>3</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>6</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>8</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -1697,27 +1762,30 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>2</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M32" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>10000028</v>
       </c>
-      <c r="D33" s="9">
-        <v>3</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>9</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>10</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1729,27 +1797,30 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <v>2</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M33" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>10000029</v>
       </c>
-      <c r="D34" s="9">
-        <v>4</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="13">
-        <v>3</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="12">
+        <v>3</v>
+      </c>
+      <c r="G34" s="12">
         <v>5</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -1761,27 +1832,30 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>2</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M34" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>10000030</v>
       </c>
-      <c r="D35" s="9">
-        <v>4</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="8">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>6</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -1793,27 +1867,30 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <v>2</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>10000031</v>
       </c>
-      <c r="D36" s="9">
-        <v>4</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="8">
+        <v>4</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>11</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>15</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -1825,27 +1902,30 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>2</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M36" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>10000032</v>
       </c>
-      <c r="D37" s="9">
-        <v>4</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="8">
+        <v>4</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>16</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>20</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -1857,27 +1937,30 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>2</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M37" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>10000033</v>
       </c>
-      <c r="D38" s="9">
-        <v>5</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="8">
+        <v>5</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="13">
-        <v>5</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="12">
+        <v>5</v>
+      </c>
+      <c r="G38" s="12">
         <v>10</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -1889,27 +1972,30 @@
       <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>2</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M38" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>10000034</v>
       </c>
-      <c r="D39" s="9">
-        <v>5</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="8">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>11</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>20</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -1921,27 +2007,30 @@
       <c r="J39" s="1">
         <v>1</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <v>2</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M39" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C40">
         <v>10000035</v>
       </c>
-      <c r="D40" s="9">
-        <v>5</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="8">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>21</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>30</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -1953,27 +2042,30 @@
       <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <v>2</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M40" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C41">
         <v>10000036</v>
       </c>
-      <c r="D41" s="9">
-        <v>5</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="8">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>31</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>40</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -1985,28 +2077,31 @@
       <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <v>2</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M41" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C42">
         <v>10000037</v>
       </c>
-      <c r="D42" s="9">
-        <v>3</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="12">
         <v>10</v>
+      </c>
+      <c r="G42" s="12">
+        <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>32</v>
@@ -2014,31 +2109,34 @@
       <c r="I42" s="1">
         <v>2</v>
       </c>
-      <c r="J42" s="13">
-        <v>2</v>
-      </c>
-      <c r="K42" s="11">
+      <c r="J42" s="12">
+        <v>2</v>
+      </c>
+      <c r="K42" s="10">
         <v>2</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C43">
         <v>10000038</v>
       </c>
-      <c r="D43" s="9">
-        <v>3</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="8">
+        <v>3</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="13">
-        <v>11</v>
-      </c>
-      <c r="G43" s="13">
-        <v>20</v>
+      <c r="F43" s="12">
+        <v>110</v>
+      </c>
+      <c r="G43" s="12">
+        <v>200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>32</v>
@@ -2046,31 +2144,34 @@
       <c r="I43" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="13">
-        <v>2</v>
-      </c>
-      <c r="K43" s="11">
+      <c r="J43" s="12">
+        <v>2</v>
+      </c>
+      <c r="K43" s="10">
         <v>2</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C44">
         <v>10000039</v>
       </c>
-      <c r="D44" s="9">
-        <v>3</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="13">
-        <v>21</v>
-      </c>
-      <c r="G44" s="13">
-        <v>30</v>
+      <c r="F44" s="12">
+        <v>210</v>
+      </c>
+      <c r="G44" s="12">
+        <v>300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>32</v>
@@ -2078,31 +2179,34 @@
       <c r="I44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="13">
-        <v>2</v>
-      </c>
-      <c r="K44" s="11">
+      <c r="J44" s="12">
+        <v>2</v>
+      </c>
+      <c r="K44" s="10">
         <v>2</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>10000040</v>
       </c>
-      <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="8">
+        <v>3</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="13">
-        <v>31</v>
-      </c>
-      <c r="G45" s="13">
-        <v>50</v>
+      <c r="F45" s="12">
+        <v>310</v>
+      </c>
+      <c r="G45" s="12">
+        <v>500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>32</v>
@@ -2110,31 +2214,34 @@
       <c r="I45" s="1">
         <v>2</v>
       </c>
-      <c r="J45" s="13">
-        <v>2</v>
-      </c>
-      <c r="K45" s="11">
+      <c r="J45" s="12">
+        <v>2</v>
+      </c>
+      <c r="K45" s="10">
         <v>2</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C46">
         <v>10000041</v>
       </c>
-      <c r="D46" s="9">
-        <v>4</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="D46" s="8">
+        <v>4</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="13">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13">
-        <v>15</v>
+      <c r="F46" s="12">
+        <v>10</v>
+      </c>
+      <c r="G46" s="12">
+        <v>150</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>32</v>
@@ -2142,31 +2249,34 @@
       <c r="I46" s="1">
         <v>2</v>
       </c>
-      <c r="J46" s="13">
-        <v>2</v>
-      </c>
-      <c r="K46" s="11">
+      <c r="J46" s="12">
+        <v>2</v>
+      </c>
+      <c r="K46" s="10">
         <v>2</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C47">
         <v>10000042</v>
       </c>
-      <c r="D47" s="9">
-        <v>4</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D47" s="8">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="13">
-        <v>16</v>
-      </c>
-      <c r="G47" s="13">
-        <v>30</v>
+      <c r="F47" s="12">
+        <v>160</v>
+      </c>
+      <c r="G47" s="12">
+        <v>300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>32</v>
@@ -2174,31 +2284,34 @@
       <c r="I47" s="1">
         <v>2</v>
       </c>
-      <c r="J47" s="13">
-        <v>2</v>
-      </c>
-      <c r="K47" s="11">
+      <c r="J47" s="12">
+        <v>2</v>
+      </c>
+      <c r="K47" s="10">
         <v>2</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C48">
         <v>10000043</v>
       </c>
-      <c r="D48" s="9">
-        <v>4</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="8">
+        <v>4</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="13">
-        <v>31</v>
-      </c>
-      <c r="G48" s="13">
-        <v>45</v>
+      <c r="F48" s="12">
+        <v>310</v>
+      </c>
+      <c r="G48" s="12">
+        <v>450</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>32</v>
@@ -2206,31 +2319,34 @@
       <c r="I48" s="1">
         <v>2</v>
       </c>
-      <c r="J48" s="13">
-        <v>2</v>
-      </c>
-      <c r="K48" s="11">
+      <c r="J48" s="12">
+        <v>2</v>
+      </c>
+      <c r="K48" s="10">
         <v>2</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>10000044</v>
       </c>
-      <c r="D49" s="9">
-        <v>4</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="8">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="13">
-        <v>16</v>
-      </c>
-      <c r="G49" s="13">
-        <v>60</v>
+      <c r="F49" s="12">
+        <v>160</v>
+      </c>
+      <c r="G49" s="12">
+        <v>600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>32</v>
@@ -2238,31 +2354,34 @@
       <c r="I49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="13">
-        <v>2</v>
-      </c>
-      <c r="K49" s="11">
+      <c r="J49" s="12">
+        <v>2</v>
+      </c>
+      <c r="K49" s="10">
         <v>2</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>10000045</v>
       </c>
-      <c r="D50" s="9">
-        <v>5</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="8">
+        <v>5</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="13">
-        <v>15</v>
-      </c>
-      <c r="G50" s="13">
-        <v>20</v>
+      <c r="F50" s="12">
+        <v>150</v>
+      </c>
+      <c r="G50" s="12">
+        <v>200</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>32</v>
@@ -2270,31 +2389,34 @@
       <c r="I50" s="1">
         <v>2</v>
       </c>
-      <c r="J50" s="13">
-        <v>2</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="J50" s="12">
+        <v>2</v>
+      </c>
+      <c r="K50" s="10">
         <v>2</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>10000046</v>
       </c>
-      <c r="D51" s="9">
-        <v>5</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="8">
+        <v>5</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="13">
-        <v>31</v>
-      </c>
-      <c r="G51" s="13">
-        <v>40</v>
+      <c r="F51" s="12">
+        <v>310</v>
+      </c>
+      <c r="G51" s="12">
+        <v>400</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>32</v>
@@ -2302,31 +2424,34 @@
       <c r="I51" s="1">
         <v>2</v>
       </c>
-      <c r="J51" s="13">
-        <v>2</v>
-      </c>
-      <c r="K51" s="11">
+      <c r="J51" s="12">
+        <v>2</v>
+      </c>
+      <c r="K51" s="10">
         <v>2</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>10000047</v>
       </c>
-      <c r="D52" s="9">
-        <v>5</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="8">
+        <v>5</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="13">
-        <v>41</v>
-      </c>
-      <c r="G52" s="13">
-        <v>80</v>
+      <c r="F52" s="12">
+        <v>410</v>
+      </c>
+      <c r="G52" s="12">
+        <v>800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>32</v>
@@ -2334,31 +2459,34 @@
       <c r="I52" s="1">
         <v>2</v>
       </c>
-      <c r="J52" s="13">
-        <v>2</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="J52" s="12">
+        <v>2</v>
+      </c>
+      <c r="K52" s="10">
         <v>2</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>10000048</v>
       </c>
-      <c r="D53" s="9">
-        <v>5</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="13">
-        <v>81</v>
-      </c>
-      <c r="G53" s="13">
-        <v>100</v>
+      <c r="F53" s="12">
+        <v>810</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1000</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>32</v>
@@ -2366,24 +2494,27 @@
       <c r="I53" s="1">
         <v>2</v>
       </c>
-      <c r="J53" s="13">
-        <v>2</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="J53" s="12">
+        <v>2</v>
+      </c>
+      <c r="K53" s="10">
         <v>2</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>10000049</v>
       </c>
-      <c r="D54" s="9">
-        <v>3</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="8">
+        <v>3</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1">
@@ -2401,27 +2532,30 @@
       <c r="J54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <v>2</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M54" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>10000050</v>
       </c>
-      <c r="D55" s="9">
-        <v>3</v>
-      </c>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>251</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <v>500</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -2433,27 +2567,30 @@
       <c r="J55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <v>2</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M55" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>10000051</v>
       </c>
-      <c r="D56" s="9">
-        <v>3</v>
-      </c>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <v>501</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>750</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -2465,27 +2602,30 @@
       <c r="J56" s="1">
         <v>1</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>2</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M56" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>10000052</v>
       </c>
-      <c r="D57" s="9">
-        <v>3</v>
-      </c>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>751</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>1000</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -2497,27 +2637,30 @@
       <c r="J57" s="1">
         <v>1</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="10">
         <v>2</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M57" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>10000053</v>
       </c>
-      <c r="D58" s="9">
-        <v>4</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <v>250</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>500</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -2529,27 +2672,30 @@
       <c r="J58" s="1">
         <v>1</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <v>2</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M58" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>10000054</v>
       </c>
-      <c r="D59" s="9">
-        <v>4</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="8">
+        <v>4</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <v>501</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>1000</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2561,27 +2707,30 @@
       <c r="J59" s="1">
         <v>1</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <v>2</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M59" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>10000055</v>
       </c>
-      <c r="D60" s="9">
-        <v>4</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="12">
         <v>1001</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <v>1500</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -2593,27 +2742,30 @@
       <c r="J60" s="1">
         <v>1</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <v>2</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M60" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>10000056</v>
       </c>
-      <c r="D61" s="9">
-        <v>4</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="8">
+        <v>4</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="12">
         <v>1501</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <v>2000</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -2625,27 +2777,30 @@
       <c r="J61" s="1">
         <v>1</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <v>2</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M61" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>10000057</v>
       </c>
-      <c r="D62" s="9">
-        <v>5</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="8">
+        <v>5</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="12">
         <v>500</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <v>1250</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -2657,27 +2812,30 @@
       <c r="J62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <v>2</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M62" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>10000058</v>
       </c>
-      <c r="D63" s="9">
-        <v>5</v>
-      </c>
-      <c r="E63" s="11" t="s">
+      <c r="D63" s="8">
+        <v>5</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="12">
         <v>1251</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>2000</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -2689,27 +2847,30 @@
       <c r="J63" s="1">
         <v>1</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="10">
         <v>2</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M63" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>10000059</v>
       </c>
-      <c r="D64" s="9">
-        <v>5</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="8">
+        <v>5</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="12">
         <v>2001</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <v>2750</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -2721,27 +2882,30 @@
       <c r="J64" s="1">
         <v>1</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="10">
         <v>2</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M64" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>10000060</v>
       </c>
-      <c r="D65" s="9">
-        <v>5</v>
-      </c>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="8">
+        <v>5</v>
+      </c>
+      <c r="E65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <v>2751</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <v>3500</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -2753,28 +2917,31 @@
       <c r="J65" s="1">
         <v>1</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="10">
         <v>2</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M65" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>10000061</v>
       </c>
-      <c r="D66" s="9">
-        <v>3</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="D66" s="8">
+        <v>3</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="13">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13">
+      <c r="F66" s="12">
         <v>10</v>
+      </c>
+      <c r="G66" s="12">
+        <v>100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>34</v>
@@ -2782,31 +2949,34 @@
       <c r="I66" s="1">
         <v>3</v>
       </c>
-      <c r="J66" s="13">
-        <v>2</v>
-      </c>
-      <c r="K66" s="11">
+      <c r="J66" s="12">
+        <v>2</v>
+      </c>
+      <c r="K66" s="10">
         <v>2</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>10000062</v>
       </c>
-      <c r="D67" s="9">
-        <v>3</v>
-      </c>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="13">
-        <v>11</v>
-      </c>
-      <c r="G67" s="13">
-        <v>20</v>
+      <c r="F67" s="12">
+        <v>110</v>
+      </c>
+      <c r="G67" s="12">
+        <v>200</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>34</v>
@@ -2814,31 +2984,34 @@
       <c r="I67" s="1">
         <v>3</v>
       </c>
-      <c r="J67" s="13">
-        <v>2</v>
-      </c>
-      <c r="K67" s="11">
+      <c r="J67" s="12">
+        <v>2</v>
+      </c>
+      <c r="K67" s="10">
         <v>2</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>10000063</v>
       </c>
-      <c r="D68" s="9">
-        <v>3</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="8">
+        <v>3</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="13">
-        <v>21</v>
-      </c>
-      <c r="G68" s="13">
-        <v>30</v>
+      <c r="F68" s="12">
+        <v>210</v>
+      </c>
+      <c r="G68" s="12">
+        <v>300</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>34</v>
@@ -2846,31 +3019,34 @@
       <c r="I68" s="1">
         <v>3</v>
       </c>
-      <c r="J68" s="13">
-        <v>2</v>
-      </c>
-      <c r="K68" s="11">
+      <c r="J68" s="12">
+        <v>2</v>
+      </c>
+      <c r="K68" s="10">
         <v>2</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C69">
         <v>10000064</v>
       </c>
-      <c r="D69" s="9">
-        <v>3</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="8">
+        <v>3</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="13">
-        <v>31</v>
-      </c>
-      <c r="G69" s="13">
-        <v>50</v>
+      <c r="F69" s="12">
+        <v>310</v>
+      </c>
+      <c r="G69" s="12">
+        <v>500</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>34</v>
@@ -2878,31 +3054,34 @@
       <c r="I69" s="1">
         <v>3</v>
       </c>
-      <c r="J69" s="13">
-        <v>2</v>
-      </c>
-      <c r="K69" s="11">
+      <c r="J69" s="12">
+        <v>2</v>
+      </c>
+      <c r="K69" s="10">
         <v>2</v>
       </c>
       <c r="L69" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>10000065</v>
       </c>
-      <c r="D70" s="9">
-        <v>4</v>
-      </c>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="8">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="13">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13">
-        <v>15</v>
+      <c r="F70" s="12">
+        <v>10</v>
+      </c>
+      <c r="G70" s="12">
+        <v>150</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>34</v>
@@ -2910,31 +3089,34 @@
       <c r="I70" s="1">
         <v>3</v>
       </c>
-      <c r="J70" s="13">
-        <v>2</v>
-      </c>
-      <c r="K70" s="11">
+      <c r="J70" s="12">
+        <v>2</v>
+      </c>
+      <c r="K70" s="10">
         <v>2</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C71">
         <v>10000066</v>
       </c>
-      <c r="D71" s="9">
-        <v>4</v>
-      </c>
-      <c r="E71" s="11" t="s">
+      <c r="D71" s="8">
+        <v>4</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="13">
-        <v>16</v>
-      </c>
-      <c r="G71" s="13">
-        <v>30</v>
+      <c r="F71" s="12">
+        <v>160</v>
+      </c>
+      <c r="G71" s="12">
+        <v>300</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>34</v>
@@ -2942,31 +3124,34 @@
       <c r="I71" s="1">
         <v>3</v>
       </c>
-      <c r="J71" s="13">
-        <v>2</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="J71" s="12">
+        <v>2</v>
+      </c>
+      <c r="K71" s="10">
         <v>2</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C72">
         <v>10000067</v>
       </c>
-      <c r="D72" s="9">
-        <v>4</v>
-      </c>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="8">
+        <v>4</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="13">
-        <v>31</v>
-      </c>
-      <c r="G72" s="13">
-        <v>45</v>
+      <c r="F72" s="12">
+        <v>310</v>
+      </c>
+      <c r="G72" s="12">
+        <v>450</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>34</v>
@@ -2974,31 +3159,34 @@
       <c r="I72" s="1">
         <v>3</v>
       </c>
-      <c r="J72" s="13">
-        <v>2</v>
-      </c>
-      <c r="K72" s="11">
+      <c r="J72" s="12">
+        <v>2</v>
+      </c>
+      <c r="K72" s="10">
         <v>2</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C73">
         <v>10000068</v>
       </c>
-      <c r="D73" s="9">
-        <v>4</v>
-      </c>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="8">
+        <v>4</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="13">
-        <v>46</v>
-      </c>
-      <c r="G73" s="13">
-        <v>60</v>
+      <c r="F73" s="12">
+        <v>460</v>
+      </c>
+      <c r="G73" s="12">
+        <v>600</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>34</v>
@@ -3006,31 +3194,34 @@
       <c r="I73" s="1">
         <v>3</v>
       </c>
-      <c r="J73" s="13">
-        <v>2</v>
-      </c>
-      <c r="K73" s="11">
+      <c r="J73" s="12">
+        <v>2</v>
+      </c>
+      <c r="K73" s="10">
         <v>2</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C74">
         <v>10000069</v>
       </c>
-      <c r="D74" s="9">
-        <v>5</v>
-      </c>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="8">
+        <v>5</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="13">
-        <v>15</v>
-      </c>
-      <c r="G74" s="13">
-        <v>20</v>
+      <c r="F74" s="12">
+        <v>150</v>
+      </c>
+      <c r="G74" s="12">
+        <v>200</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>34</v>
@@ -3038,31 +3229,34 @@
       <c r="I74" s="1">
         <v>3</v>
       </c>
-      <c r="J74" s="13">
-        <v>2</v>
-      </c>
-      <c r="K74" s="11">
+      <c r="J74" s="12">
+        <v>2</v>
+      </c>
+      <c r="K74" s="10">
         <v>2</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C75">
         <v>10000070</v>
       </c>
-      <c r="D75" s="9">
-        <v>5</v>
-      </c>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="8">
+        <v>5</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="13">
-        <v>21</v>
-      </c>
-      <c r="G75" s="13">
-        <v>40</v>
+      <c r="F75" s="12">
+        <v>210</v>
+      </c>
+      <c r="G75" s="12">
+        <v>400</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>34</v>
@@ -3070,31 +3264,34 @@
       <c r="I75" s="1">
         <v>3</v>
       </c>
-      <c r="J75" s="13">
-        <v>2</v>
-      </c>
-      <c r="K75" s="11">
+      <c r="J75" s="12">
+        <v>2</v>
+      </c>
+      <c r="K75" s="10">
         <v>2</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="76" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C76">
         <v>10000071</v>
       </c>
-      <c r="D76" s="9">
-        <v>5</v>
-      </c>
-      <c r="E76" s="12" t="s">
+      <c r="D76" s="8">
+        <v>5</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="13">
-        <v>41</v>
-      </c>
-      <c r="G76" s="13">
-        <v>80</v>
+      <c r="F76" s="12">
+        <v>410</v>
+      </c>
+      <c r="G76" s="12">
+        <v>800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>34</v>
@@ -3102,31 +3299,34 @@
       <c r="I76" s="1">
         <v>3</v>
       </c>
-      <c r="J76" s="13">
-        <v>2</v>
-      </c>
-      <c r="K76" s="11">
+      <c r="J76" s="12">
+        <v>2</v>
+      </c>
+      <c r="K76" s="10">
         <v>2</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C77">
         <v>10000072</v>
       </c>
-      <c r="D77" s="9">
-        <v>5</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="8">
+        <v>5</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="13">
-        <v>81</v>
-      </c>
-      <c r="G77" s="13">
-        <v>100</v>
+      <c r="F77" s="12">
+        <v>810</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1000</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>34</v>
@@ -3134,1934 +3334,2117 @@
       <c r="I77" s="1">
         <v>3</v>
       </c>
-      <c r="J77" s="13">
-        <v>2</v>
-      </c>
-      <c r="K77" s="11">
+      <c r="J77" s="12">
+        <v>2</v>
+      </c>
+      <c r="K77" s="10">
         <v>2</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C78">
         <v>10000073</v>
       </c>
-      <c r="D78" s="9">
-        <v>3</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="8">
+        <v>3</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="13">
-        <v>1</v>
-      </c>
-      <c r="G78" s="13">
-        <v>5</v>
+      <c r="F78" s="12">
+        <v>10</v>
+      </c>
+      <c r="G78" s="12">
+        <v>50</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I78" s="13">
-        <v>4</v>
-      </c>
-      <c r="J78" s="13">
-        <v>2</v>
-      </c>
-      <c r="K78" s="12">
+      <c r="I78" s="12">
+        <v>4</v>
+      </c>
+      <c r="J78" s="12">
+        <v>2</v>
+      </c>
+      <c r="K78" s="11">
         <v>1</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C79">
         <v>10000074</v>
       </c>
-      <c r="D79" s="9">
-        <v>3</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="D79" s="8">
+        <v>3</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="13">
-        <v>6</v>
-      </c>
-      <c r="G79" s="13">
-        <v>10</v>
+      <c r="F79" s="12">
+        <v>60</v>
+      </c>
+      <c r="G79" s="12">
+        <v>100</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="13">
-        <v>4</v>
-      </c>
-      <c r="J79" s="13">
-        <v>2</v>
-      </c>
-      <c r="K79" s="12">
+      <c r="I79" s="12">
+        <v>4</v>
+      </c>
+      <c r="J79" s="12">
+        <v>2</v>
+      </c>
+      <c r="K79" s="11">
         <v>1</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C80">
         <v>10000075</v>
       </c>
-      <c r="D80" s="9">
-        <v>3</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="8">
+        <v>3</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="13">
-        <v>11</v>
-      </c>
-      <c r="G80" s="13">
-        <v>15</v>
+      <c r="F80" s="12">
+        <v>110</v>
+      </c>
+      <c r="G80" s="12">
+        <v>150</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I80" s="13">
-        <v>4</v>
-      </c>
-      <c r="J80" s="13">
-        <v>2</v>
-      </c>
-      <c r="K80" s="12">
+      <c r="I80" s="12">
+        <v>4</v>
+      </c>
+      <c r="J80" s="12">
+        <v>2</v>
+      </c>
+      <c r="K80" s="11">
         <v>1</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C81">
         <v>10000076</v>
       </c>
-      <c r="D81" s="9">
-        <v>3</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="D81" s="8">
+        <v>3</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="13">
-        <v>16</v>
-      </c>
-      <c r="G81" s="13">
-        <v>25</v>
+      <c r="F81" s="12">
+        <v>160</v>
+      </c>
+      <c r="G81" s="12">
+        <v>250</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I81" s="13">
-        <v>4</v>
-      </c>
-      <c r="J81" s="13">
-        <v>2</v>
-      </c>
-      <c r="K81" s="12">
+      <c r="I81" s="12">
+        <v>4</v>
+      </c>
+      <c r="J81" s="12">
+        <v>2</v>
+      </c>
+      <c r="K81" s="11">
         <v>1</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C82">
         <v>10000077</v>
       </c>
-      <c r="D82" s="9">
-        <v>4</v>
-      </c>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="8">
+        <v>4</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="13">
-        <v>5</v>
-      </c>
-      <c r="G82" s="13">
-        <v>10</v>
+      <c r="F82" s="12">
+        <v>50</v>
+      </c>
+      <c r="G82" s="12">
+        <v>100</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="13">
-        <v>4</v>
-      </c>
-      <c r="J82" s="13">
-        <v>2</v>
-      </c>
-      <c r="K82" s="12">
+      <c r="I82" s="12">
+        <v>4</v>
+      </c>
+      <c r="J82" s="12">
+        <v>2</v>
+      </c>
+      <c r="K82" s="11">
         <v>1</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C83">
         <v>10000078</v>
       </c>
-      <c r="D83" s="9">
-        <v>4</v>
-      </c>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="8">
+        <v>4</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="13">
-        <v>11</v>
-      </c>
-      <c r="G83" s="13">
-        <v>15</v>
+      <c r="F83" s="12">
+        <v>110</v>
+      </c>
+      <c r="G83" s="12">
+        <v>150</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I83" s="13">
-        <v>4</v>
-      </c>
-      <c r="J83" s="13">
-        <v>2</v>
-      </c>
-      <c r="K83" s="12">
+      <c r="I83" s="12">
+        <v>4</v>
+      </c>
+      <c r="J83" s="12">
+        <v>2</v>
+      </c>
+      <c r="K83" s="11">
         <v>1</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C84">
         <v>10000079</v>
       </c>
-      <c r="D84" s="9">
-        <v>4</v>
-      </c>
-      <c r="E84" s="12" t="s">
+      <c r="D84" s="8">
+        <v>4</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="13">
-        <v>16</v>
-      </c>
-      <c r="G84" s="13">
-        <v>25</v>
+      <c r="F84" s="12">
+        <v>160</v>
+      </c>
+      <c r="G84" s="12">
+        <v>250</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I84" s="13">
-        <v>4</v>
-      </c>
-      <c r="J84" s="13">
-        <v>2</v>
-      </c>
-      <c r="K84" s="12">
+      <c r="I84" s="12">
+        <v>4</v>
+      </c>
+      <c r="J84" s="12">
+        <v>2</v>
+      </c>
+      <c r="K84" s="11">
         <v>1</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C85">
         <v>10000080</v>
       </c>
-      <c r="D85" s="9">
-        <v>4</v>
-      </c>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="8">
+        <v>4</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="13">
-        <v>26</v>
-      </c>
-      <c r="G85" s="13">
-        <v>30</v>
+      <c r="F85" s="12">
+        <v>260</v>
+      </c>
+      <c r="G85" s="12">
+        <v>300</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I85" s="13">
-        <v>4</v>
-      </c>
-      <c r="J85" s="13">
-        <v>2</v>
-      </c>
-      <c r="K85" s="12">
+      <c r="I85" s="12">
+        <v>4</v>
+      </c>
+      <c r="J85" s="12">
+        <v>2</v>
+      </c>
+      <c r="K85" s="11">
         <v>1</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C86">
         <v>10000081</v>
       </c>
-      <c r="D86" s="9">
-        <v>5</v>
-      </c>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="8">
+        <v>5</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="13">
-        <v>11</v>
-      </c>
-      <c r="G86" s="13">
-        <v>15</v>
+      <c r="F86" s="12">
+        <v>110</v>
+      </c>
+      <c r="G86" s="12">
+        <v>150</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I86" s="13">
-        <v>4</v>
-      </c>
-      <c r="J86" s="13">
-        <v>2</v>
-      </c>
-      <c r="K86" s="12">
+      <c r="I86" s="12">
+        <v>4</v>
+      </c>
+      <c r="J86" s="12">
+        <v>2</v>
+      </c>
+      <c r="K86" s="11">
         <v>1</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C87">
         <v>10000082</v>
       </c>
-      <c r="D87" s="9">
-        <v>5</v>
-      </c>
-      <c r="E87" s="11" t="s">
+      <c r="D87" s="8">
+        <v>5</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="13">
-        <v>16</v>
-      </c>
-      <c r="G87" s="13">
-        <v>25</v>
+      <c r="F87" s="12">
+        <v>160</v>
+      </c>
+      <c r="G87" s="12">
+        <v>250</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I87" s="13">
-        <v>4</v>
-      </c>
-      <c r="J87" s="13">
-        <v>2</v>
-      </c>
-      <c r="K87" s="12">
+      <c r="I87" s="12">
+        <v>4</v>
+      </c>
+      <c r="J87" s="12">
+        <v>2</v>
+      </c>
+      <c r="K87" s="11">
         <v>1</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C88">
         <v>10000083</v>
       </c>
-      <c r="D88" s="9">
-        <v>5</v>
-      </c>
-      <c r="E88" s="11" t="s">
+      <c r="D88" s="8">
+        <v>5</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="13">
-        <v>26</v>
-      </c>
-      <c r="G88" s="13">
-        <v>30</v>
+      <c r="F88" s="12">
+        <v>260</v>
+      </c>
+      <c r="G88" s="12">
+        <v>300</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="13">
-        <v>4</v>
-      </c>
-      <c r="J88" s="13">
-        <v>2</v>
-      </c>
-      <c r="K88" s="12">
+      <c r="I88" s="12">
+        <v>4</v>
+      </c>
+      <c r="J88" s="12">
+        <v>2</v>
+      </c>
+      <c r="K88" s="11">
         <v>1</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C89">
         <v>10000084</v>
       </c>
-      <c r="D89" s="9">
-        <v>5</v>
-      </c>
-      <c r="E89" s="11" t="s">
+      <c r="D89" s="8">
+        <v>5</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="13">
-        <v>31</v>
-      </c>
-      <c r="G89" s="13">
-        <v>50</v>
+      <c r="F89" s="12">
+        <v>310</v>
+      </c>
+      <c r="G89" s="12">
+        <v>500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I89" s="13">
-        <v>4</v>
-      </c>
-      <c r="J89" s="13">
-        <v>2</v>
-      </c>
-      <c r="K89" s="12">
+      <c r="I89" s="12">
+        <v>4</v>
+      </c>
+      <c r="J89" s="12">
+        <v>2</v>
+      </c>
+      <c r="K89" s="11">
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C90">
         <v>10000085</v>
       </c>
-      <c r="D90" s="9">
-        <v>3</v>
-      </c>
-      <c r="E90" s="12" t="s">
+      <c r="D90" s="8">
+        <v>3</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="13">
-        <v>1</v>
-      </c>
-      <c r="G90" s="13">
-        <v>2</v>
+      <c r="F90" s="12">
+        <v>10</v>
+      </c>
+      <c r="G90" s="12">
+        <v>200</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I90" s="13">
-        <v>5</v>
-      </c>
-      <c r="J90" s="13">
-        <v>2</v>
-      </c>
-      <c r="K90" s="11">
+      <c r="I90" s="12">
+        <v>5</v>
+      </c>
+      <c r="J90" s="12">
+        <v>2</v>
+      </c>
+      <c r="K90" s="10">
         <v>3</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="91" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C91">
         <v>10000086</v>
       </c>
-      <c r="D91" s="9">
-        <v>3</v>
-      </c>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="8">
+        <v>3</v>
+      </c>
+      <c r="E91" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="13">
-        <v>21</v>
-      </c>
-      <c r="G91" s="13">
+      <c r="F91" s="12">
+        <v>210</v>
+      </c>
+      <c r="G91" s="12">
         <v>40</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I91" s="13">
-        <v>5</v>
-      </c>
-      <c r="J91" s="13">
-        <v>2</v>
-      </c>
-      <c r="K91" s="11">
+      <c r="I91" s="12">
+        <v>5</v>
+      </c>
+      <c r="J91" s="12">
+        <v>2</v>
+      </c>
+      <c r="K91" s="10">
         <v>3</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C92">
         <v>10000087</v>
       </c>
-      <c r="D92" s="9">
-        <v>3</v>
-      </c>
-      <c r="E92" s="12" t="s">
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="13">
-        <v>41</v>
-      </c>
-      <c r="G92" s="13">
-        <v>60</v>
+      <c r="F92" s="12">
+        <v>410</v>
+      </c>
+      <c r="G92" s="12">
+        <v>600</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I92" s="13">
-        <v>5</v>
-      </c>
-      <c r="J92" s="13">
-        <v>2</v>
-      </c>
-      <c r="K92" s="11">
+      <c r="I92" s="12">
+        <v>5</v>
+      </c>
+      <c r="J92" s="12">
+        <v>2</v>
+      </c>
+      <c r="K92" s="10">
         <v>3</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C93">
         <v>10000088</v>
       </c>
-      <c r="D93" s="9">
-        <v>3</v>
-      </c>
-      <c r="E93" s="12" t="s">
+      <c r="D93" s="8">
+        <v>3</v>
+      </c>
+      <c r="E93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="13">
-        <v>60</v>
-      </c>
-      <c r="G93" s="13">
-        <v>100</v>
+      <c r="F93" s="12">
+        <v>600</v>
+      </c>
+      <c r="G93" s="12">
+        <v>1000</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I93" s="13">
-        <v>5</v>
-      </c>
-      <c r="J93" s="13">
-        <v>2</v>
-      </c>
-      <c r="K93" s="11">
+      <c r="I93" s="12">
+        <v>5</v>
+      </c>
+      <c r="J93" s="12">
+        <v>2</v>
+      </c>
+      <c r="K93" s="10">
         <v>3</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C94">
         <v>10000089</v>
       </c>
-      <c r="D94" s="9">
-        <v>4</v>
-      </c>
-      <c r="E94" s="11" t="s">
+      <c r="D94" s="8">
+        <v>4</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="13">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13">
-        <v>30</v>
+      <c r="F94" s="12">
+        <v>100</v>
+      </c>
+      <c r="G94" s="12">
+        <v>300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I94" s="13">
-        <v>5</v>
-      </c>
-      <c r="J94" s="13">
-        <v>2</v>
-      </c>
-      <c r="K94" s="11">
+      <c r="I94" s="12">
+        <v>5</v>
+      </c>
+      <c r="J94" s="12">
+        <v>2</v>
+      </c>
+      <c r="K94" s="10">
         <v>3</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C95">
         <v>10000090</v>
       </c>
-      <c r="D95" s="9">
-        <v>4</v>
-      </c>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="8">
+        <v>4</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="13">
-        <v>31</v>
-      </c>
-      <c r="G95" s="13">
-        <v>60</v>
+      <c r="F95" s="12">
+        <v>310</v>
+      </c>
+      <c r="G95" s="12">
+        <v>600</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I95" s="13">
-        <v>5</v>
-      </c>
-      <c r="J95" s="13">
-        <v>2</v>
-      </c>
-      <c r="K95" s="11">
+      <c r="I95" s="12">
+        <v>5</v>
+      </c>
+      <c r="J95" s="12">
+        <v>2</v>
+      </c>
+      <c r="K95" s="10">
         <v>3</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="96" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C96">
         <v>10000091</v>
       </c>
-      <c r="D96" s="9">
-        <v>4</v>
-      </c>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="8">
+        <v>4</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="13">
-        <v>61</v>
-      </c>
-      <c r="G96" s="13">
-        <v>60</v>
+      <c r="F96" s="12">
+        <v>610</v>
+      </c>
+      <c r="G96" s="12">
+        <v>600</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I96" s="13">
-        <v>5</v>
-      </c>
-      <c r="J96" s="13">
-        <v>2</v>
-      </c>
-      <c r="K96" s="11">
+      <c r="I96" s="12">
+        <v>5</v>
+      </c>
+      <c r="J96" s="12">
+        <v>2</v>
+      </c>
+      <c r="K96" s="10">
         <v>3</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C97">
         <v>10000092</v>
       </c>
-      <c r="D97" s="9">
-        <v>4</v>
-      </c>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="8">
+        <v>4</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="13">
-        <v>91</v>
-      </c>
-      <c r="G97" s="13">
-        <v>120</v>
+      <c r="F97" s="12">
+        <v>910</v>
+      </c>
+      <c r="G97" s="12">
+        <v>1200</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I97" s="13">
-        <v>5</v>
-      </c>
-      <c r="J97" s="13">
-        <v>2</v>
-      </c>
-      <c r="K97" s="11">
+      <c r="I97" s="12">
+        <v>5</v>
+      </c>
+      <c r="J97" s="12">
+        <v>2</v>
+      </c>
+      <c r="K97" s="10">
         <v>3</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C98">
         <v>10000093</v>
       </c>
-      <c r="D98" s="9">
-        <v>5</v>
-      </c>
-      <c r="E98" s="12" t="s">
+      <c r="D98" s="8">
+        <v>5</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="13">
-        <v>30</v>
-      </c>
-      <c r="G98" s="13">
-        <v>40</v>
+      <c r="F98" s="12">
+        <v>300</v>
+      </c>
+      <c r="G98" s="12">
+        <v>400</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I98" s="13">
-        <v>5</v>
-      </c>
-      <c r="J98" s="13">
-        <v>2</v>
-      </c>
-      <c r="K98" s="11">
+      <c r="I98" s="12">
+        <v>5</v>
+      </c>
+      <c r="J98" s="12">
+        <v>2</v>
+      </c>
+      <c r="K98" s="10">
         <v>3</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C99">
         <v>10000094</v>
       </c>
-      <c r="D99" s="9">
-        <v>5</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="8">
+        <v>5</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="13">
-        <v>41</v>
-      </c>
-      <c r="G99" s="13">
-        <v>80</v>
+      <c r="F99" s="12">
+        <v>410</v>
+      </c>
+      <c r="G99" s="12">
+        <v>800</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I99" s="13">
-        <v>5</v>
-      </c>
-      <c r="J99" s="13">
-        <v>2</v>
-      </c>
-      <c r="K99" s="11">
+      <c r="I99" s="12">
+        <v>5</v>
+      </c>
+      <c r="J99" s="12">
+        <v>2</v>
+      </c>
+      <c r="K99" s="10">
         <v>3</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C100">
         <v>10000095</v>
       </c>
-      <c r="D100" s="9">
-        <v>5</v>
-      </c>
-      <c r="E100" s="12" t="s">
+      <c r="D100" s="8">
+        <v>5</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="13">
-        <v>81</v>
-      </c>
-      <c r="G100" s="13">
-        <v>160</v>
+      <c r="F100" s="12">
+        <v>810</v>
+      </c>
+      <c r="G100" s="12">
+        <v>1600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I100" s="13">
-        <v>5</v>
-      </c>
-      <c r="J100" s="13">
-        <v>2</v>
-      </c>
-      <c r="K100" s="11">
+      <c r="I100" s="12">
+        <v>5</v>
+      </c>
+      <c r="J100" s="12">
+        <v>2</v>
+      </c>
+      <c r="K100" s="10">
         <v>3</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C101">
         <v>10000096</v>
       </c>
-      <c r="D101" s="9">
-        <v>5</v>
-      </c>
-      <c r="E101" s="12" t="s">
+      <c r="D101" s="8">
+        <v>5</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="13">
-        <v>161</v>
-      </c>
-      <c r="G101" s="13">
-        <v>200</v>
+      <c r="F101" s="12">
+        <v>1610</v>
+      </c>
+      <c r="G101" s="12">
+        <v>2000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I101" s="13">
-        <v>5</v>
-      </c>
-      <c r="J101" s="13">
-        <v>2</v>
-      </c>
-      <c r="K101" s="11">
+      <c r="I101" s="12">
+        <v>5</v>
+      </c>
+      <c r="J101" s="12">
+        <v>2</v>
+      </c>
+      <c r="K101" s="10">
         <v>3</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C102">
         <v>10000097</v>
       </c>
-      <c r="D102" s="9">
-        <v>3</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="8">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="13">
-        <v>1</v>
-      </c>
-      <c r="G102" s="13">
-        <v>5</v>
+      <c r="F102" s="12">
+        <v>10</v>
+      </c>
+      <c r="G102" s="12">
+        <v>50</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="12">
         <v>6</v>
       </c>
-      <c r="J102" s="13">
-        <v>2</v>
-      </c>
-      <c r="K102" s="14">
+      <c r="J102" s="12">
+        <v>2</v>
+      </c>
+      <c r="K102" s="13">
         <v>4</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="103" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C103">
         <v>10000098</v>
       </c>
-      <c r="D103" s="9">
-        <v>3</v>
-      </c>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="8">
+        <v>3</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="13">
-        <v>6</v>
-      </c>
-      <c r="G103" s="13">
-        <v>10</v>
+      <c r="F103" s="12">
+        <v>60</v>
+      </c>
+      <c r="G103" s="12">
+        <v>100</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="12">
         <v>6</v>
       </c>
-      <c r="J103" s="13">
-        <v>2</v>
-      </c>
-      <c r="K103" s="14">
+      <c r="J103" s="12">
+        <v>2</v>
+      </c>
+      <c r="K103" s="13">
         <v>4</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="104" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C104">
         <v>10000099</v>
       </c>
-      <c r="D104" s="9">
-        <v>3</v>
-      </c>
-      <c r="E104" s="11" t="s">
+      <c r="D104" s="8">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="13">
-        <v>11</v>
-      </c>
-      <c r="G104" s="13">
-        <v>15</v>
+      <c r="F104" s="12">
+        <v>110</v>
+      </c>
+      <c r="G104" s="12">
+        <v>150</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="12">
         <v>6</v>
       </c>
-      <c r="J104" s="13">
-        <v>2</v>
-      </c>
-      <c r="K104" s="14">
+      <c r="J104" s="12">
+        <v>2</v>
+      </c>
+      <c r="K104" s="13">
         <v>4</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="105" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C105">
         <v>10000100</v>
       </c>
-      <c r="D105" s="9">
-        <v>3</v>
-      </c>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="8">
+        <v>3</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="13">
-        <v>16</v>
-      </c>
-      <c r="G105" s="13">
-        <v>25</v>
+      <c r="F105" s="12">
+        <v>160</v>
+      </c>
+      <c r="G105" s="12">
+        <v>250</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="12">
         <v>6</v>
       </c>
-      <c r="J105" s="13">
-        <v>2</v>
-      </c>
-      <c r="K105" s="14">
+      <c r="J105" s="12">
+        <v>2</v>
+      </c>
+      <c r="K105" s="13">
         <v>4</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="106" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C106">
         <v>10000101</v>
       </c>
-      <c r="D106" s="9">
-        <v>4</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="D106" s="8">
+        <v>4</v>
+      </c>
+      <c r="E106" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="13">
-        <v>5</v>
-      </c>
-      <c r="G106" s="13">
-        <v>10</v>
+      <c r="F106" s="12">
+        <v>50</v>
+      </c>
+      <c r="G106" s="12">
+        <v>100</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="12">
         <v>6</v>
       </c>
-      <c r="J106" s="13">
-        <v>2</v>
-      </c>
-      <c r="K106" s="14">
+      <c r="J106" s="12">
+        <v>2</v>
+      </c>
+      <c r="K106" s="13">
         <v>4</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C107">
         <v>10000102</v>
       </c>
-      <c r="D107" s="9">
-        <v>4</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="D107" s="8">
+        <v>4</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="13">
-        <v>11</v>
-      </c>
-      <c r="G107" s="13">
-        <v>15</v>
+      <c r="F107" s="12">
+        <v>110</v>
+      </c>
+      <c r="G107" s="12">
+        <v>150</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="12">
         <v>6</v>
       </c>
-      <c r="J107" s="13">
-        <v>2</v>
-      </c>
-      <c r="K107" s="14">
+      <c r="J107" s="12">
+        <v>2</v>
+      </c>
+      <c r="K107" s="13">
         <v>4</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="108" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C108">
         <v>10000103</v>
       </c>
-      <c r="D108" s="9">
-        <v>4</v>
-      </c>
-      <c r="E108" s="12" t="s">
+      <c r="D108" s="8">
+        <v>4</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="13">
-        <v>16</v>
-      </c>
-      <c r="G108" s="13">
-        <v>25</v>
+      <c r="F108" s="12">
+        <v>160</v>
+      </c>
+      <c r="G108" s="12">
+        <v>250</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="12">
         <v>6</v>
       </c>
-      <c r="J108" s="13">
-        <v>2</v>
-      </c>
-      <c r="K108" s="14">
+      <c r="J108" s="12">
+        <v>2</v>
+      </c>
+      <c r="K108" s="13">
         <v>4</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="109" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C109">
         <v>10000104</v>
       </c>
-      <c r="D109" s="9">
-        <v>4</v>
-      </c>
-      <c r="E109" s="12" t="s">
+      <c r="D109" s="8">
+        <v>4</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F109" s="13">
-        <v>26</v>
-      </c>
-      <c r="G109" s="13">
-        <v>30</v>
+      <c r="F109" s="12">
+        <v>260</v>
+      </c>
+      <c r="G109" s="12">
+        <v>300</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="12">
         <v>6</v>
       </c>
-      <c r="J109" s="13">
-        <v>2</v>
-      </c>
-      <c r="K109" s="14">
+      <c r="J109" s="12">
+        <v>2</v>
+      </c>
+      <c r="K109" s="13">
         <v>4</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="110" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C110">
         <v>10000105</v>
       </c>
-      <c r="D110" s="9">
-        <v>5</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="8">
+        <v>5</v>
+      </c>
+      <c r="E110" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="13">
-        <v>11</v>
-      </c>
-      <c r="G110" s="13">
-        <v>15</v>
+      <c r="F110" s="12">
+        <v>110</v>
+      </c>
+      <c r="G110" s="12">
+        <v>150</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="12">
         <v>6</v>
       </c>
-      <c r="J110" s="13">
-        <v>2</v>
-      </c>
-      <c r="K110" s="14">
+      <c r="J110" s="12">
+        <v>2</v>
+      </c>
+      <c r="K110" s="13">
         <v>4</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C111">
         <v>10000106</v>
       </c>
-      <c r="D111" s="9">
-        <v>5</v>
-      </c>
-      <c r="E111" s="11" t="s">
+      <c r="D111" s="8">
+        <v>5</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="13">
-        <v>15</v>
-      </c>
-      <c r="G111" s="13">
-        <v>25</v>
+      <c r="F111" s="12">
+        <v>150</v>
+      </c>
+      <c r="G111" s="12">
+        <v>250</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="12">
         <v>6</v>
       </c>
-      <c r="J111" s="13">
-        <v>2</v>
-      </c>
-      <c r="K111" s="14">
+      <c r="J111" s="12">
+        <v>2</v>
+      </c>
+      <c r="K111" s="13">
         <v>4</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="112" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C112">
         <v>10000107</v>
       </c>
-      <c r="D112" s="9">
-        <v>5</v>
-      </c>
-      <c r="E112" s="11" t="s">
+      <c r="D112" s="8">
+        <v>5</v>
+      </c>
+      <c r="E112" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="13">
-        <v>26</v>
-      </c>
-      <c r="G112" s="13">
-        <v>30</v>
+      <c r="F112" s="12">
+        <v>260</v>
+      </c>
+      <c r="G112" s="12">
+        <v>300</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="12">
         <v>6</v>
       </c>
-      <c r="J112" s="13">
-        <v>2</v>
-      </c>
-      <c r="K112" s="14">
+      <c r="J112" s="12">
+        <v>2</v>
+      </c>
+      <c r="K112" s="13">
         <v>4</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="113" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C113">
         <v>10000108</v>
       </c>
-      <c r="D113" s="9">
-        <v>5</v>
-      </c>
-      <c r="E113" s="11" t="s">
+      <c r="D113" s="8">
+        <v>5</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="13">
-        <v>31</v>
-      </c>
-      <c r="G113" s="13">
-        <v>50</v>
+      <c r="F113" s="12">
+        <v>310</v>
+      </c>
+      <c r="G113" s="12">
+        <v>500</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="12">
         <v>6</v>
       </c>
-      <c r="J113" s="13">
-        <v>2</v>
-      </c>
-      <c r="K113" s="14">
+      <c r="J113" s="12">
+        <v>2</v>
+      </c>
+      <c r="K113" s="13">
         <v>4</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="114" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C114">
         <v>10000109</v>
       </c>
-      <c r="D114" s="9">
-        <v>3</v>
-      </c>
-      <c r="E114" s="12" t="s">
+      <c r="D114" s="8">
+        <v>3</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="13">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13">
-        <v>5</v>
+      <c r="F114" s="12">
+        <v>10</v>
+      </c>
+      <c r="G114" s="12">
+        <v>50</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="12">
         <v>7</v>
       </c>
-      <c r="J114" s="13">
-        <v>2</v>
-      </c>
-      <c r="K114" s="11">
+      <c r="J114" s="12">
+        <v>2</v>
+      </c>
+      <c r="K114" s="10">
         <v>3</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="115" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C115">
         <v>10000110</v>
       </c>
-      <c r="D115" s="9">
-        <v>3</v>
-      </c>
-      <c r="E115" s="12" t="s">
+      <c r="D115" s="8">
+        <v>3</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="13">
-        <v>6</v>
-      </c>
-      <c r="G115" s="13">
-        <v>10</v>
+      <c r="F115" s="12">
+        <v>60</v>
+      </c>
+      <c r="G115" s="12">
+        <v>100</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="12">
         <v>7</v>
       </c>
-      <c r="J115" s="13">
-        <v>2</v>
-      </c>
-      <c r="K115" s="11">
+      <c r="J115" s="12">
+        <v>2</v>
+      </c>
+      <c r="K115" s="10">
         <v>3</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="116" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C116">
         <v>10000111</v>
       </c>
-      <c r="D116" s="9">
-        <v>3</v>
-      </c>
-      <c r="E116" s="12" t="s">
+      <c r="D116" s="8">
+        <v>3</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="13">
-        <v>11</v>
-      </c>
-      <c r="G116" s="13">
-        <v>15</v>
+      <c r="F116" s="12">
+        <v>110</v>
+      </c>
+      <c r="G116" s="12">
+        <v>150</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="12">
         <v>7</v>
       </c>
-      <c r="J116" s="13">
-        <v>2</v>
-      </c>
-      <c r="K116" s="11">
+      <c r="J116" s="12">
+        <v>2</v>
+      </c>
+      <c r="K116" s="10">
         <v>3</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="117" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C117">
         <v>10000112</v>
       </c>
-      <c r="D117" s="9">
-        <v>3</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="8">
+        <v>3</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="13">
-        <v>16</v>
-      </c>
-      <c r="G117" s="13">
-        <v>25</v>
+      <c r="F117" s="12">
+        <v>160</v>
+      </c>
+      <c r="G117" s="12">
+        <v>250</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="12">
         <v>7</v>
       </c>
-      <c r="J117" s="13">
-        <v>2</v>
-      </c>
-      <c r="K117" s="11">
+      <c r="J117" s="12">
+        <v>2</v>
+      </c>
+      <c r="K117" s="10">
         <v>3</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="118" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C118">
         <v>10000113</v>
       </c>
-      <c r="D118" s="9">
-        <v>4</v>
-      </c>
-      <c r="E118" s="11" t="s">
+      <c r="D118" s="8">
+        <v>4</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F118" s="13">
-        <v>5</v>
-      </c>
-      <c r="G118" s="13">
-        <v>10</v>
+      <c r="F118" s="12">
+        <v>50</v>
+      </c>
+      <c r="G118" s="12">
+        <v>100</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="12">
         <v>7</v>
       </c>
-      <c r="J118" s="13">
-        <v>2</v>
-      </c>
-      <c r="K118" s="11">
+      <c r="J118" s="12">
+        <v>2</v>
+      </c>
+      <c r="K118" s="10">
         <v>3</v>
       </c>
       <c r="L118" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="119" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C119">
         <v>10000114</v>
       </c>
-      <c r="D119" s="9">
-        <v>4</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="D119" s="8">
+        <v>4</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="13">
-        <v>11</v>
-      </c>
-      <c r="G119" s="13">
-        <v>15</v>
+      <c r="F119" s="12">
+        <v>110</v>
+      </c>
+      <c r="G119" s="12">
+        <v>150</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119" s="12">
         <v>7</v>
       </c>
-      <c r="J119" s="13">
-        <v>2</v>
-      </c>
-      <c r="K119" s="11">
+      <c r="J119" s="12">
+        <v>2</v>
+      </c>
+      <c r="K119" s="10">
         <v>3</v>
       </c>
       <c r="L119" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="120" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M119" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C120">
         <v>10000115</v>
       </c>
-      <c r="D120" s="9">
-        <v>4</v>
-      </c>
-      <c r="E120" s="11" t="s">
+      <c r="D120" s="8">
+        <v>4</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="13">
-        <v>16</v>
-      </c>
-      <c r="G120" s="13">
-        <v>25</v>
+      <c r="F120" s="12">
+        <v>160</v>
+      </c>
+      <c r="G120" s="12">
+        <v>250</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120" s="12">
         <v>7</v>
       </c>
-      <c r="J120" s="13">
-        <v>2</v>
-      </c>
-      <c r="K120" s="11">
+      <c r="J120" s="12">
+        <v>2</v>
+      </c>
+      <c r="K120" s="10">
         <v>3</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="121" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C121">
         <v>10000116</v>
       </c>
-      <c r="D121" s="9">
-        <v>4</v>
-      </c>
-      <c r="E121" s="11" t="s">
+      <c r="D121" s="8">
+        <v>4</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F121" s="13">
-        <v>26</v>
-      </c>
-      <c r="G121" s="13">
-        <v>30</v>
+      <c r="F121" s="12">
+        <v>260</v>
+      </c>
+      <c r="G121" s="12">
+        <v>300</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="12">
         <v>7</v>
       </c>
-      <c r="J121" s="13">
-        <v>2</v>
-      </c>
-      <c r="K121" s="11">
+      <c r="J121" s="12">
+        <v>2</v>
+      </c>
+      <c r="K121" s="10">
         <v>3</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="122" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C122">
         <v>10000117</v>
       </c>
-      <c r="D122" s="9">
-        <v>5</v>
-      </c>
-      <c r="E122" s="12" t="s">
+      <c r="D122" s="8">
+        <v>5</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="13">
-        <v>11</v>
-      </c>
-      <c r="G122" s="13">
-        <v>15</v>
+      <c r="F122" s="12">
+        <v>110</v>
+      </c>
+      <c r="G122" s="12">
+        <v>150</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="12">
         <v>7</v>
       </c>
-      <c r="J122" s="13">
-        <v>2</v>
-      </c>
-      <c r="K122" s="11">
+      <c r="J122" s="12">
+        <v>2</v>
+      </c>
+      <c r="K122" s="10">
         <v>3</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="123" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C123">
         <v>10000118</v>
       </c>
-      <c r="D123" s="9">
-        <v>5</v>
-      </c>
-      <c r="E123" s="12" t="s">
+      <c r="D123" s="8">
+        <v>5</v>
+      </c>
+      <c r="E123" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F123" s="13">
-        <v>15</v>
-      </c>
-      <c r="G123" s="13">
-        <v>25</v>
+      <c r="F123" s="12">
+        <v>150</v>
+      </c>
+      <c r="G123" s="12">
+        <v>250</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="12">
         <v>7</v>
       </c>
-      <c r="J123" s="13">
-        <v>2</v>
-      </c>
-      <c r="K123" s="11">
+      <c r="J123" s="12">
+        <v>2</v>
+      </c>
+      <c r="K123" s="10">
         <v>3</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="124" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C124">
         <v>10000119</v>
       </c>
-      <c r="D124" s="9">
-        <v>5</v>
-      </c>
-      <c r="E124" s="12" t="s">
+      <c r="D124" s="8">
+        <v>5</v>
+      </c>
+      <c r="E124" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="13">
-        <v>26</v>
-      </c>
-      <c r="G124" s="13">
-        <v>30</v>
+      <c r="F124" s="12">
+        <v>260</v>
+      </c>
+      <c r="G124" s="12">
+        <v>300</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124" s="12">
         <v>7</v>
       </c>
-      <c r="J124" s="13">
-        <v>2</v>
-      </c>
-      <c r="K124" s="11">
+      <c r="J124" s="12">
+        <v>2</v>
+      </c>
+      <c r="K124" s="10">
         <v>3</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="125" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C125">
         <v>10000120</v>
       </c>
-      <c r="D125" s="9">
-        <v>5</v>
-      </c>
-      <c r="E125" s="12" t="s">
+      <c r="D125" s="8">
+        <v>5</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="13">
-        <v>31</v>
-      </c>
-      <c r="G125" s="13">
-        <v>50</v>
+      <c r="F125" s="12">
+        <v>310</v>
+      </c>
+      <c r="G125" s="12">
+        <v>500</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="12">
         <v>7</v>
       </c>
-      <c r="J125" s="13">
-        <v>2</v>
-      </c>
-      <c r="K125" s="11">
+      <c r="J125" s="12">
+        <v>2</v>
+      </c>
+      <c r="K125" s="10">
         <v>3</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="126" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C126">
         <v>10000121</v>
       </c>
-      <c r="D126" s="9">
-        <v>3</v>
-      </c>
-      <c r="E126" s="11" t="s">
+      <c r="D126" s="8">
+        <v>3</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="13">
-        <v>1</v>
-      </c>
-      <c r="G126" s="13">
-        <v>5</v>
+      <c r="F126" s="12">
+        <v>10</v>
+      </c>
+      <c r="G126" s="12">
+        <v>50</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126" s="12">
         <v>8</v>
       </c>
-      <c r="J126" s="13">
-        <v>2</v>
-      </c>
-      <c r="K126" s="14">
+      <c r="J126" s="12">
+        <v>2</v>
+      </c>
+      <c r="K126" s="13">
         <v>4</v>
       </c>
       <c r="L126" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C127">
         <v>10000122</v>
       </c>
-      <c r="D127" s="9">
-        <v>3</v>
-      </c>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="8">
+        <v>3</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F127" s="13">
-        <v>6</v>
-      </c>
-      <c r="G127" s="13">
-        <v>10</v>
+      <c r="F127" s="12">
+        <v>60</v>
+      </c>
+      <c r="G127" s="12">
+        <v>100</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127" s="12">
         <v>8</v>
       </c>
-      <c r="J127" s="13">
-        <v>2</v>
-      </c>
-      <c r="K127" s="14">
+      <c r="J127" s="12">
+        <v>2</v>
+      </c>
+      <c r="K127" s="13">
         <v>4</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="128" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C128">
         <v>10000123</v>
       </c>
-      <c r="D128" s="9">
-        <v>3</v>
-      </c>
-      <c r="E128" s="11" t="s">
+      <c r="D128" s="8">
+        <v>3</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="13">
-        <v>11</v>
-      </c>
-      <c r="G128" s="13">
-        <v>15</v>
+      <c r="F128" s="12">
+        <v>110</v>
+      </c>
+      <c r="G128" s="12">
+        <v>150</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128" s="12">
         <v>8</v>
       </c>
-      <c r="J128" s="13">
-        <v>2</v>
-      </c>
-      <c r="K128" s="14">
+      <c r="J128" s="12">
+        <v>2</v>
+      </c>
+      <c r="K128" s="13">
         <v>4</v>
       </c>
       <c r="L128" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="129" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C129">
         <v>10000124</v>
       </c>
-      <c r="D129" s="9">
-        <v>3</v>
-      </c>
-      <c r="E129" s="11" t="s">
+      <c r="D129" s="8">
+        <v>3</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F129" s="13">
-        <v>16</v>
-      </c>
-      <c r="G129" s="13">
-        <v>25</v>
+      <c r="F129" s="12">
+        <v>160</v>
+      </c>
+      <c r="G129" s="12">
+        <v>250</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="12">
         <v>8</v>
       </c>
-      <c r="J129" s="13">
-        <v>2</v>
-      </c>
-      <c r="K129" s="14">
+      <c r="J129" s="12">
+        <v>2</v>
+      </c>
+      <c r="K129" s="13">
         <v>4</v>
       </c>
       <c r="L129" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="130" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C130">
         <v>10000125</v>
       </c>
-      <c r="D130" s="9">
-        <v>4</v>
-      </c>
-      <c r="E130" s="12" t="s">
+      <c r="D130" s="8">
+        <v>4</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="13">
-        <v>5</v>
-      </c>
-      <c r="G130" s="13">
-        <v>10</v>
+      <c r="F130" s="12">
+        <v>50</v>
+      </c>
+      <c r="G130" s="12">
+        <v>100</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130" s="12">
         <v>8</v>
       </c>
-      <c r="J130" s="13">
-        <v>2</v>
-      </c>
-      <c r="K130" s="14">
+      <c r="J130" s="12">
+        <v>2</v>
+      </c>
+      <c r="K130" s="13">
         <v>4</v>
       </c>
       <c r="L130" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="131" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C131">
         <v>10000126</v>
       </c>
-      <c r="D131" s="9">
-        <v>4</v>
-      </c>
-      <c r="E131" s="12" t="s">
+      <c r="D131" s="8">
+        <v>4</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="13">
-        <v>11</v>
-      </c>
-      <c r="G131" s="13">
-        <v>15</v>
+      <c r="F131" s="12">
+        <v>110</v>
+      </c>
+      <c r="G131" s="12">
+        <v>150</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="12">
         <v>8</v>
       </c>
-      <c r="J131" s="13">
-        <v>2</v>
-      </c>
-      <c r="K131" s="14">
+      <c r="J131" s="12">
+        <v>2</v>
+      </c>
+      <c r="K131" s="13">
         <v>4</v>
       </c>
       <c r="L131" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="132" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C132">
         <v>10000127</v>
       </c>
-      <c r="D132" s="9">
-        <v>4</v>
-      </c>
-      <c r="E132" s="12" t="s">
+      <c r="D132" s="8">
+        <v>4</v>
+      </c>
+      <c r="E132" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="13">
-        <v>16</v>
-      </c>
-      <c r="G132" s="13">
-        <v>25</v>
+      <c r="F132" s="12">
+        <v>160</v>
+      </c>
+      <c r="G132" s="12">
+        <v>250</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="12">
         <v>8</v>
       </c>
-      <c r="J132" s="13">
-        <v>2</v>
-      </c>
-      <c r="K132" s="14">
+      <c r="J132" s="12">
+        <v>2</v>
+      </c>
+      <c r="K132" s="13">
         <v>4</v>
       </c>
       <c r="L132" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="133" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C133">
         <v>10000128</v>
       </c>
-      <c r="D133" s="9">
-        <v>4</v>
-      </c>
-      <c r="E133" s="12" t="s">
+      <c r="D133" s="8">
+        <v>4</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="13">
-        <v>26</v>
-      </c>
-      <c r="G133" s="13">
-        <v>30</v>
+      <c r="F133" s="12">
+        <v>260</v>
+      </c>
+      <c r="G133" s="12">
+        <v>300</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="12">
         <v>8</v>
       </c>
-      <c r="J133" s="13">
-        <v>2</v>
-      </c>
-      <c r="K133" s="14">
+      <c r="J133" s="12">
+        <v>2</v>
+      </c>
+      <c r="K133" s="13">
         <v>4</v>
       </c>
       <c r="L133" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="134" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C134">
         <v>10000129</v>
       </c>
-      <c r="D134" s="9">
-        <v>5</v>
-      </c>
-      <c r="E134" s="11" t="s">
+      <c r="D134" s="8">
+        <v>5</v>
+      </c>
+      <c r="E134" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="13">
-        <v>11</v>
-      </c>
-      <c r="G134" s="13">
-        <v>15</v>
+      <c r="F134" s="12">
+        <v>110</v>
+      </c>
+      <c r="G134" s="12">
+        <v>150</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134" s="12">
         <v>8</v>
       </c>
-      <c r="J134" s="13">
-        <v>2</v>
-      </c>
-      <c r="K134" s="14">
+      <c r="J134" s="12">
+        <v>2</v>
+      </c>
+      <c r="K134" s="13">
         <v>4</v>
       </c>
       <c r="L134" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C135">
         <v>10000130</v>
       </c>
-      <c r="D135" s="9">
-        <v>5</v>
-      </c>
-      <c r="E135" s="11" t="s">
+      <c r="D135" s="8">
+        <v>5</v>
+      </c>
+      <c r="E135" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="13">
-        <v>15</v>
-      </c>
-      <c r="G135" s="13">
-        <v>25</v>
+      <c r="F135" s="12">
+        <v>150</v>
+      </c>
+      <c r="G135" s="12">
+        <v>250</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="12">
         <v>8</v>
       </c>
-      <c r="J135" s="13">
-        <v>2</v>
-      </c>
-      <c r="K135" s="14">
+      <c r="J135" s="12">
+        <v>2</v>
+      </c>
+      <c r="K135" s="13">
         <v>4</v>
       </c>
       <c r="L135" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="136" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C136">
         <v>10000131</v>
       </c>
-      <c r="D136" s="9">
-        <v>5</v>
-      </c>
-      <c r="E136" s="11" t="s">
+      <c r="D136" s="8">
+        <v>5</v>
+      </c>
+      <c r="E136" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F136" s="13">
-        <v>26</v>
-      </c>
-      <c r="G136" s="13">
-        <v>30</v>
+      <c r="F136" s="12">
+        <v>260</v>
+      </c>
+      <c r="G136" s="12">
+        <v>300</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136" s="12">
         <v>8</v>
       </c>
-      <c r="J136" s="13">
-        <v>2</v>
-      </c>
-      <c r="K136" s="14">
+      <c r="J136" s="12">
+        <v>2</v>
+      </c>
+      <c r="K136" s="13">
         <v>4</v>
       </c>
       <c r="L136" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="137" spans="3:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C137">
         <v>10000132</v>
       </c>
-      <c r="D137" s="9">
-        <v>5</v>
-      </c>
-      <c r="E137" s="11" t="s">
+      <c r="D137" s="8">
+        <v>5</v>
+      </c>
+      <c r="E137" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="13">
-        <v>31</v>
-      </c>
-      <c r="G137" s="13">
-        <v>50</v>
+      <c r="F137" s="12">
+        <v>310</v>
+      </c>
+      <c r="G137" s="12">
+        <v>500</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="12">
         <v>8</v>
       </c>
-      <c r="J137" s="13">
-        <v>2</v>
-      </c>
-      <c r="K137" s="14">
+      <c r="J137" s="12">
+        <v>2</v>
+      </c>
+      <c r="K137" s="13">
         <v>4</v>
       </c>
       <c r="L137" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="M137" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/WeaponWordBarsConfig.xlsx
+++ b/Excel/WeaponWordBarsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710FABE-E571-4173-A073-8D5E4F1CBB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0D962-FA95-4649-8BA8-773090BF5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#词条类型1攻击2防御3生命4暴击5暴伤6暴抗7加伤8免伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#数值类型1固定数值2百分比类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -216,12 +212,16 @@
     <t>Coefficient</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">#词条类型Attack = 1, AttackAddition = 2,HP = 3,HPAddition = 4,Defecnce = 5,DefenceAddition = 6,CriticalHit = 7, CriticalHitDamage = 8, Toughness = 9, DamageAddition = 10, DamageReduction = 11, </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -334,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,6 +379,23 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -680,13 +705,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
     <col min="5" max="7" width="20.1796875" style="3" customWidth="1"/>
@@ -720,16 +745,16 @@
         <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -756,16 +781,16 @@
         <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -827,10 +852,10 @@
       <c r="G6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="16">
         <v>1</v>
       </c>
       <c r="J6" s="1">
@@ -840,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1">
         <v>3</v>
@@ -848,8 +873,8 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>27</v>
+      <c r="A7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7">
@@ -867,10 +892,10 @@
       <c r="G7" s="7">
         <v>10</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
       <c r="J7" s="1">
@@ -880,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1">
         <v>3</v>
@@ -888,7 +913,7 @@
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8">
@@ -906,10 +931,10 @@
       <c r="G8" s="8">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
       <c r="J8" s="1">
@@ -919,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
@@ -943,10 +968,10 @@
       <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="16">
         <v>1</v>
       </c>
       <c r="J9" s="1">
@@ -956,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1">
         <v>3</v>
@@ -979,10 +1004,10 @@
       <c r="G10" s="9">
         <v>10</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="16">
         <v>1</v>
       </c>
       <c r="J10" s="1">
@@ -992,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="1">
         <v>3</v>
@@ -1015,10 +1040,10 @@
       <c r="G11" s="9">
         <v>20</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
       <c r="J11" s="1">
@@ -1028,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="1">
         <v>3</v>
@@ -1052,10 +1077,10 @@
       <c r="G12" s="9">
         <v>30</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="16">
         <v>1</v>
       </c>
       <c r="J12" s="1">
@@ -1065,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
@@ -1088,10 +1113,10 @@
       <c r="G13" s="9">
         <v>40</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="1">
@@ -1101,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" s="1">
         <v>3</v>
@@ -1123,10 +1148,10 @@
       <c r="G14" s="9">
         <v>25</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
       <c r="J14" s="1">
@@ -1136,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" s="1">
         <v>3</v>
@@ -1158,10 +1183,10 @@
       <c r="G15" s="9">
         <v>40</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="16">
         <v>1</v>
       </c>
       <c r="J15" s="1">
@@ -1171,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M15" s="1">
         <v>3</v>
@@ -1193,10 +1218,10 @@
       <c r="G16" s="9">
         <v>55</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="16">
         <v>1</v>
       </c>
       <c r="J16" s="1">
@@ -1206,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1">
         <v>3</v>
@@ -1228,10 +1253,10 @@
       <c r="G17" s="9">
         <v>70</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="16">
         <v>1</v>
       </c>
       <c r="J17" s="1">
@@ -1241,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1">
         <v>3</v>
@@ -1263,11 +1288,11 @@
       <c r="G18" s="9">
         <v>100</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
+      <c r="I18" s="18">
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
@@ -1276,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -1296,13 +1321,13 @@
         <v>110</v>
       </c>
       <c r="G19" s="9">
-        <v>20</v>
-      </c>
-      <c r="H19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
+      <c r="I19" s="18">
+        <v>2</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -1311,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -1333,11 +1358,11 @@
       <c r="G20" s="9">
         <v>310</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="7">
-        <v>1</v>
+      <c r="I20" s="18">
+        <v>2</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
@@ -1346,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -1368,11 +1393,11 @@
       <c r="G21" s="9">
         <v>500</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
+      <c r="I21" s="18">
+        <v>2</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
@@ -1381,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -1403,11 +1428,11 @@
       <c r="G22" s="9">
         <v>150</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
+      <c r="I22" s="18">
+        <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
@@ -1416,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -1438,11 +1463,11 @@
       <c r="G23" s="9">
         <v>300</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
+      <c r="I23" s="18">
+        <v>2</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -1451,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -1473,11 +1498,11 @@
       <c r="G24" s="9">
         <v>450</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="7">
-        <v>1</v>
+      <c r="I24" s="18">
+        <v>2</v>
       </c>
       <c r="J24" s="1">
         <v>2</v>
@@ -1486,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -1508,11 +1533,11 @@
       <c r="G25" s="9">
         <v>600</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="7">
-        <v>1</v>
+      <c r="I25" s="18">
+        <v>2</v>
       </c>
       <c r="J25" s="1">
         <v>2</v>
@@ -1521,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -1543,11 +1568,11 @@
       <c r="G26" s="9">
         <v>200</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="7">
-        <v>1</v>
+      <c r="I26" s="18">
+        <v>2</v>
       </c>
       <c r="J26" s="1">
         <v>2</v>
@@ -1556,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -1578,11 +1603,11 @@
       <c r="G27" s="9">
         <v>400</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="7">
-        <v>1</v>
+      <c r="I27" s="18">
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -1591,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -1613,11 +1638,11 @@
       <c r="G28" s="9">
         <v>800</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="7">
-        <v>1</v>
+      <c r="I28" s="18">
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
@@ -1626,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -1648,11 +1673,11 @@
       <c r="G29" s="9">
         <v>1000</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
+      <c r="I29" s="18">
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -1661,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -1683,11 +1708,11 @@
       <c r="G30" s="1">
         <v>2</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2</v>
+      <c r="H30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="11">
+        <v>5</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -1696,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M30" s="12">
         <v>2</v>
@@ -1718,11 +1743,11 @@
       <c r="G31" s="12">
         <v>5</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2</v>
+      <c r="H31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="11">
+        <v>5</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -1731,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M31" s="12">
         <v>2</v>
@@ -1753,11 +1778,11 @@
       <c r="G32" s="12">
         <v>8</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2</v>
+      <c r="H32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="11">
+        <v>5</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -1766,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32" s="12">
         <v>2</v>
@@ -1788,11 +1813,11 @@
       <c r="G33" s="12">
         <v>10</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="1">
-        <v>2</v>
+      <c r="H33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="11">
+        <v>5</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -1801,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="12">
         <v>2</v>
@@ -1823,11 +1848,11 @@
       <c r="G34" s="12">
         <v>5</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="1">
-        <v>2</v>
+      <c r="H34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="11">
+        <v>5</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -1836,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34" s="12">
         <v>2</v>
@@ -1858,11 +1883,11 @@
       <c r="G35" s="12">
         <v>10</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="1">
-        <v>2</v>
+      <c r="H35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="11">
+        <v>5</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -1871,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="12">
         <v>2</v>
@@ -1893,11 +1918,11 @@
       <c r="G36" s="12">
         <v>15</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="1">
-        <v>2</v>
+      <c r="H36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="11">
+        <v>5</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -1906,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M36" s="12">
         <v>2</v>
@@ -1928,11 +1953,11 @@
       <c r="G37" s="12">
         <v>20</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="1">
-        <v>2</v>
+      <c r="H37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="11">
+        <v>5</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -1941,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M37" s="12">
         <v>2</v>
@@ -1963,11 +1988,11 @@
       <c r="G38" s="12">
         <v>10</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2</v>
+      <c r="H38" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="11">
+        <v>5</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -1976,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M38" s="12">
         <v>2</v>
@@ -1998,11 +2023,11 @@
       <c r="G39" s="12">
         <v>20</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2</v>
+      <c r="H39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="11">
+        <v>5</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2011,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M39" s="12">
         <v>2</v>
@@ -2033,11 +2058,11 @@
       <c r="G40" s="12">
         <v>30</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2</v>
+      <c r="H40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="11">
+        <v>5</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -2046,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M40" s="12">
         <v>2</v>
@@ -2068,11 +2093,11 @@
       <c r="G41" s="12">
         <v>40</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2</v>
+      <c r="H41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="11">
+        <v>5</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2081,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M41" s="12">
         <v>2</v>
@@ -2103,11 +2128,11 @@
       <c r="G42" s="12">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="1">
-        <v>2</v>
+      <c r="H42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="10">
+        <v>6</v>
       </c>
       <c r="J42" s="12">
         <v>2</v>
@@ -2116,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42" s="12">
         <v>0</v>
@@ -2138,11 +2163,11 @@
       <c r="G43" s="12">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="1">
-        <v>2</v>
+      <c r="H43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="10">
+        <v>6</v>
       </c>
       <c r="J43" s="12">
         <v>2</v>
@@ -2151,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="12">
         <v>0</v>
@@ -2173,11 +2198,11 @@
       <c r="G44" s="12">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2</v>
+      <c r="H44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="10">
+        <v>6</v>
       </c>
       <c r="J44" s="12">
         <v>2</v>
@@ -2186,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M44" s="12">
         <v>0</v>
@@ -2208,11 +2233,11 @@
       <c r="G45" s="12">
         <v>500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="1">
-        <v>2</v>
+      <c r="H45" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="10">
+        <v>6</v>
       </c>
       <c r="J45" s="12">
         <v>2</v>
@@ -2221,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M45" s="12">
         <v>0</v>
@@ -2243,11 +2268,11 @@
       <c r="G46" s="12">
         <v>150</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="1">
-        <v>2</v>
+      <c r="H46" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="10">
+        <v>6</v>
       </c>
       <c r="J46" s="12">
         <v>2</v>
@@ -2256,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M46" s="12">
         <v>0</v>
@@ -2278,11 +2303,11 @@
       <c r="G47" s="12">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="1">
-        <v>2</v>
+      <c r="H47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="10">
+        <v>6</v>
       </c>
       <c r="J47" s="12">
         <v>2</v>
@@ -2291,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M47" s="12">
         <v>0</v>
@@ -2313,11 +2338,11 @@
       <c r="G48" s="12">
         <v>450</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2</v>
+      <c r="H48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="10">
+        <v>6</v>
       </c>
       <c r="J48" s="12">
         <v>2</v>
@@ -2326,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M48" s="12">
         <v>0</v>
@@ -2348,11 +2373,11 @@
       <c r="G49" s="12">
         <v>600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="1">
-        <v>2</v>
+      <c r="H49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="10">
+        <v>6</v>
       </c>
       <c r="J49" s="12">
         <v>2</v>
@@ -2361,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M49" s="12">
         <v>0</v>
@@ -2383,11 +2408,11 @@
       <c r="G50" s="12">
         <v>200</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="1">
-        <v>2</v>
+      <c r="H50" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="10">
+        <v>6</v>
       </c>
       <c r="J50" s="12">
         <v>2</v>
@@ -2396,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M50" s="12">
         <v>0</v>
@@ -2418,11 +2443,11 @@
       <c r="G51" s="12">
         <v>400</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="1">
-        <v>2</v>
+      <c r="H51" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="10">
+        <v>6</v>
       </c>
       <c r="J51" s="12">
         <v>2</v>
@@ -2431,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M51" s="12">
         <v>0</v>
@@ -2453,11 +2478,11 @@
       <c r="G52" s="12">
         <v>800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2</v>
+      <c r="H52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="10">
+        <v>6</v>
       </c>
       <c r="J52" s="12">
         <v>2</v>
@@ -2466,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M52" s="12">
         <v>0</v>
@@ -2488,11 +2513,11 @@
       <c r="G53" s="12">
         <v>1000</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" s="1">
-        <v>2</v>
+      <c r="H53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="10">
+        <v>6</v>
       </c>
       <c r="J53" s="12">
         <v>2</v>
@@ -2501,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M53" s="12">
         <v>0</v>
@@ -2523,10 +2548,10 @@
       <c r="G54" s="1">
         <v>250</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="1">
+      <c r="H54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="11">
         <v>3</v>
       </c>
       <c r="J54" s="1">
@@ -2536,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M54" s="12">
         <v>50</v>
@@ -2558,10 +2583,10 @@
       <c r="G55" s="12">
         <v>500</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="1">
+      <c r="H55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="11">
         <v>3</v>
       </c>
       <c r="J55" s="1">
@@ -2571,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M55" s="12">
         <v>50</v>
@@ -2593,10 +2618,10 @@
       <c r="G56" s="12">
         <v>750</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I56" s="1">
+      <c r="H56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="11">
         <v>3</v>
       </c>
       <c r="J56" s="1">
@@ -2606,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M56" s="12">
         <v>50</v>
@@ -2628,10 +2653,10 @@
       <c r="G57" s="12">
         <v>1000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="1">
+      <c r="H57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="11">
         <v>3</v>
       </c>
       <c r="J57" s="1">
@@ -2641,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M57" s="12">
         <v>50</v>
@@ -2663,10 +2688,10 @@
       <c r="G58" s="12">
         <v>500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I58" s="1">
+      <c r="H58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="11">
         <v>3</v>
       </c>
       <c r="J58" s="1">
@@ -2676,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M58" s="12">
         <v>50</v>
@@ -2698,10 +2723,10 @@
       <c r="G59" s="12">
         <v>1000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="H59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="11">
         <v>3</v>
       </c>
       <c r="J59" s="1">
@@ -2711,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M59" s="12">
         <v>50</v>
@@ -2733,10 +2758,10 @@
       <c r="G60" s="12">
         <v>1500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="1">
+      <c r="H60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="11">
         <v>3</v>
       </c>
       <c r="J60" s="1">
@@ -2746,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M60" s="12">
         <v>50</v>
@@ -2768,10 +2793,10 @@
       <c r="G61" s="12">
         <v>2000</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="1">
+      <c r="H61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="11">
         <v>3</v>
       </c>
       <c r="J61" s="1">
@@ -2781,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M61" s="12">
         <v>50</v>
@@ -2803,10 +2828,10 @@
       <c r="G62" s="12">
         <v>1250</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="H62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="11">
         <v>3</v>
       </c>
       <c r="J62" s="1">
@@ -2816,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M62" s="12">
         <v>50</v>
@@ -2838,10 +2863,10 @@
       <c r="G63" s="12">
         <v>2000</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="1">
+      <c r="H63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" s="11">
         <v>3</v>
       </c>
       <c r="J63" s="1">
@@ -2851,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M63" s="12">
         <v>50</v>
@@ -2873,10 +2898,10 @@
       <c r="G64" s="12">
         <v>2750</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="1">
+      <c r="H64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" s="11">
         <v>3</v>
       </c>
       <c r="J64" s="1">
@@ -2886,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M64" s="12">
         <v>50</v>
@@ -2908,10 +2933,10 @@
       <c r="G65" s="12">
         <v>3500</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="1">
+      <c r="H65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="11">
         <v>3</v>
       </c>
       <c r="J65" s="1">
@@ -2921,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M65" s="12">
         <v>50</v>
@@ -2943,11 +2968,11 @@
       <c r="G66" s="12">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="1">
-        <v>3</v>
+      <c r="H66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="10">
+        <v>4</v>
       </c>
       <c r="J66" s="12">
         <v>2</v>
@@ -2956,7 +2981,7 @@
         <v>2</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M66" s="12">
         <v>0</v>
@@ -2978,11 +3003,11 @@
       <c r="G67" s="12">
         <v>200</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="1">
-        <v>3</v>
+      <c r="H67" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="10">
+        <v>4</v>
       </c>
       <c r="J67" s="12">
         <v>2</v>
@@ -2991,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M67" s="12">
         <v>0</v>
@@ -3013,11 +3038,11 @@
       <c r="G68" s="12">
         <v>300</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="1">
-        <v>3</v>
+      <c r="H68" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="10">
+        <v>4</v>
       </c>
       <c r="J68" s="12">
         <v>2</v>
@@ -3026,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M68" s="12">
         <v>0</v>
@@ -3048,11 +3073,11 @@
       <c r="G69" s="12">
         <v>500</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="1">
-        <v>3</v>
+      <c r="H69" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="10">
+        <v>4</v>
       </c>
       <c r="J69" s="12">
         <v>2</v>
@@ -3061,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M69" s="12">
         <v>0</v>
@@ -3083,11 +3108,11 @@
       <c r="G70" s="12">
         <v>150</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="1">
-        <v>3</v>
+      <c r="H70" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="10">
+        <v>4</v>
       </c>
       <c r="J70" s="12">
         <v>2</v>
@@ -3096,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M70" s="12">
         <v>0</v>
@@ -3118,11 +3143,11 @@
       <c r="G71" s="12">
         <v>300</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="1">
-        <v>3</v>
+      <c r="H71" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="10">
+        <v>4</v>
       </c>
       <c r="J71" s="12">
         <v>2</v>
@@ -3131,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M71" s="12">
         <v>0</v>
@@ -3153,11 +3178,11 @@
       <c r="G72" s="12">
         <v>450</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="1">
-        <v>3</v>
+      <c r="H72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="10">
+        <v>4</v>
       </c>
       <c r="J72" s="12">
         <v>2</v>
@@ -3166,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M72" s="12">
         <v>0</v>
@@ -3188,11 +3213,11 @@
       <c r="G73" s="12">
         <v>600</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="1">
-        <v>3</v>
+      <c r="H73" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="10">
+        <v>4</v>
       </c>
       <c r="J73" s="12">
         <v>2</v>
@@ -3201,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M73" s="12">
         <v>0</v>
@@ -3223,11 +3248,11 @@
       <c r="G74" s="12">
         <v>200</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="1">
-        <v>3</v>
+      <c r="H74" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="10">
+        <v>4</v>
       </c>
       <c r="J74" s="12">
         <v>2</v>
@@ -3236,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M74" s="12">
         <v>0</v>
@@ -3258,11 +3283,11 @@
       <c r="G75" s="12">
         <v>400</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="1">
-        <v>3</v>
+      <c r="H75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="10">
+        <v>4</v>
       </c>
       <c r="J75" s="12">
         <v>2</v>
@@ -3271,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M75" s="12">
         <v>0</v>
@@ -3293,11 +3318,11 @@
       <c r="G76" s="12">
         <v>800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="1">
-        <v>3</v>
+      <c r="H76" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="10">
+        <v>4</v>
       </c>
       <c r="J76" s="12">
         <v>2</v>
@@ -3306,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M76" s="12">
         <v>0</v>
@@ -3328,11 +3353,11 @@
       <c r="G77" s="12">
         <v>1000</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="1">
-        <v>3</v>
+      <c r="H77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="10">
+        <v>4</v>
       </c>
       <c r="J77" s="12">
         <v>2</v>
@@ -3341,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M77" s="12">
         <v>0</v>
@@ -3363,11 +3388,11 @@
       <c r="G78" s="12">
         <v>50</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I78" s="12">
-        <v>4</v>
+      <c r="I78" s="16">
+        <v>7</v>
       </c>
       <c r="J78" s="12">
         <v>2</v>
@@ -3376,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M78" s="12">
         <v>0</v>
@@ -3398,11 +3423,11 @@
       <c r="G79" s="12">
         <v>100</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="12">
-        <v>4</v>
+      <c r="I79" s="16">
+        <v>7</v>
       </c>
       <c r="J79" s="12">
         <v>2</v>
@@ -3411,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M79" s="12">
         <v>0</v>
@@ -3433,11 +3458,11 @@
       <c r="G80" s="12">
         <v>150</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I80" s="12">
-        <v>4</v>
+      <c r="I80" s="16">
+        <v>7</v>
       </c>
       <c r="J80" s="12">
         <v>2</v>
@@ -3446,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M80" s="12">
         <v>0</v>
@@ -3468,11 +3493,11 @@
       <c r="G81" s="12">
         <v>250</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I81" s="12">
-        <v>4</v>
+      <c r="I81" s="16">
+        <v>7</v>
       </c>
       <c r="J81" s="12">
         <v>2</v>
@@ -3481,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M81" s="12">
         <v>0</v>
@@ -3503,11 +3528,11 @@
       <c r="G82" s="12">
         <v>100</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="12">
-        <v>4</v>
+      <c r="I82" s="16">
+        <v>7</v>
       </c>
       <c r="J82" s="12">
         <v>2</v>
@@ -3516,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M82" s="12">
         <v>0</v>
@@ -3538,11 +3563,11 @@
       <c r="G83" s="12">
         <v>150</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I83" s="12">
-        <v>4</v>
+      <c r="I83" s="16">
+        <v>7</v>
       </c>
       <c r="J83" s="12">
         <v>2</v>
@@ -3551,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M83" s="12">
         <v>0</v>
@@ -3573,11 +3598,11 @@
       <c r="G84" s="12">
         <v>250</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I84" s="12">
-        <v>4</v>
+      <c r="I84" s="16">
+        <v>7</v>
       </c>
       <c r="J84" s="12">
         <v>2</v>
@@ -3586,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M84" s="12">
         <v>0</v>
@@ -3608,11 +3633,11 @@
       <c r="G85" s="12">
         <v>300</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I85" s="12">
-        <v>4</v>
+      <c r="I85" s="16">
+        <v>7</v>
       </c>
       <c r="J85" s="12">
         <v>2</v>
@@ -3621,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M85" s="12">
         <v>0</v>
@@ -3643,11 +3668,11 @@
       <c r="G86" s="12">
         <v>150</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I86" s="12">
-        <v>4</v>
+      <c r="I86" s="16">
+        <v>7</v>
       </c>
       <c r="J86" s="12">
         <v>2</v>
@@ -3656,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M86" s="12">
         <v>0</v>
@@ -3678,11 +3703,11 @@
       <c r="G87" s="12">
         <v>250</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I87" s="12">
-        <v>4</v>
+      <c r="I87" s="16">
+        <v>7</v>
       </c>
       <c r="J87" s="12">
         <v>2</v>
@@ -3691,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M87" s="12">
         <v>0</v>
@@ -3713,11 +3738,11 @@
       <c r="G88" s="12">
         <v>300</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="12">
-        <v>4</v>
+      <c r="I88" s="16">
+        <v>7</v>
       </c>
       <c r="J88" s="12">
         <v>2</v>
@@ -3726,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M88" s="12">
         <v>0</v>
@@ -3748,11 +3773,11 @@
       <c r="G89" s="12">
         <v>500</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I89" s="12">
-        <v>4</v>
+      <c r="I89" s="16">
+        <v>7</v>
       </c>
       <c r="J89" s="12">
         <v>2</v>
@@ -3761,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M89" s="12">
         <v>0</v>
@@ -3783,11 +3808,11 @@
       <c r="G90" s="12">
         <v>200</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="12">
-        <v>5</v>
+      <c r="H90" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="18">
+        <v>8</v>
       </c>
       <c r="J90" s="12">
         <v>2</v>
@@ -3796,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M90" s="12">
         <v>0</v>
@@ -3818,11 +3843,11 @@
       <c r="G91" s="12">
         <v>40</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" s="12">
-        <v>5</v>
+      <c r="H91" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="18">
+        <v>8</v>
       </c>
       <c r="J91" s="12">
         <v>2</v>
@@ -3831,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M91" s="12">
         <v>0</v>
@@ -3853,11 +3878,11 @@
       <c r="G92" s="12">
         <v>600</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" s="12">
-        <v>5</v>
+      <c r="H92" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="18">
+        <v>8</v>
       </c>
       <c r="J92" s="12">
         <v>2</v>
@@ -3866,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M92" s="12">
         <v>0</v>
@@ -3888,11 +3913,11 @@
       <c r="G93" s="12">
         <v>1000</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="12">
-        <v>5</v>
+      <c r="H93" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="18">
+        <v>8</v>
       </c>
       <c r="J93" s="12">
         <v>2</v>
@@ -3901,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M93" s="12">
         <v>0</v>
@@ -3923,11 +3948,11 @@
       <c r="G94" s="12">
         <v>300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I94" s="12">
-        <v>5</v>
+      <c r="H94" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="18">
+        <v>8</v>
       </c>
       <c r="J94" s="12">
         <v>2</v>
@@ -3936,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M94" s="12">
         <v>0</v>
@@ -3958,11 +3983,11 @@
       <c r="G95" s="12">
         <v>600</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="12">
-        <v>5</v>
+      <c r="H95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="18">
+        <v>8</v>
       </c>
       <c r="J95" s="12">
         <v>2</v>
@@ -3971,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M95" s="12">
         <v>0</v>
@@ -3991,13 +4016,13 @@
         <v>610</v>
       </c>
       <c r="G96" s="12">
-        <v>600</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="12">
-        <v>5</v>
+        <v>910</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="18">
+        <v>8</v>
       </c>
       <c r="J96" s="12">
         <v>2</v>
@@ -4006,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M96" s="12">
         <v>0</v>
@@ -4028,11 +4053,11 @@
       <c r="G97" s="12">
         <v>1200</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="12">
-        <v>5</v>
+      <c r="H97" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="18">
+        <v>8</v>
       </c>
       <c r="J97" s="12">
         <v>2</v>
@@ -4041,7 +4066,7 @@
         <v>3</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M97" s="12">
         <v>0</v>
@@ -4063,11 +4088,11 @@
       <c r="G98" s="12">
         <v>400</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="12">
-        <v>5</v>
+      <c r="H98" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="18">
+        <v>8</v>
       </c>
       <c r="J98" s="12">
         <v>2</v>
@@ -4076,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M98" s="12">
         <v>0</v>
@@ -4098,11 +4123,11 @@
       <c r="G99" s="12">
         <v>800</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="12">
-        <v>5</v>
+      <c r="H99" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="18">
+        <v>8</v>
       </c>
       <c r="J99" s="12">
         <v>2</v>
@@ -4111,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M99" s="12">
         <v>0</v>
@@ -4133,11 +4158,11 @@
       <c r="G100" s="12">
         <v>1600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="12">
-        <v>5</v>
+      <c r="H100" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="18">
+        <v>8</v>
       </c>
       <c r="J100" s="12">
         <v>2</v>
@@ -4146,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M100" s="12">
         <v>0</v>
@@ -4168,11 +4193,11 @@
       <c r="G101" s="12">
         <v>2000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="12">
-        <v>5</v>
+      <c r="H101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="18">
+        <v>8</v>
       </c>
       <c r="J101" s="12">
         <v>2</v>
@@ -4181,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M101" s="12">
         <v>0</v>
@@ -4203,11 +4228,11 @@
       <c r="G102" s="12">
         <v>50</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I102" s="12">
-        <v>6</v>
+      <c r="H102" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="16">
+        <v>9</v>
       </c>
       <c r="J102" s="12">
         <v>2</v>
@@ -4216,7 +4241,7 @@
         <v>4</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M102" s="12">
         <v>0</v>
@@ -4238,11 +4263,11 @@
       <c r="G103" s="12">
         <v>100</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I103" s="12">
-        <v>6</v>
+      <c r="H103" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="16">
+        <v>9</v>
       </c>
       <c r="J103" s="12">
         <v>2</v>
@@ -4251,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M103" s="12">
         <v>0</v>
@@ -4273,11 +4298,11 @@
       <c r="G104" s="12">
         <v>150</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I104" s="12">
-        <v>6</v>
+      <c r="H104" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" s="16">
+        <v>9</v>
       </c>
       <c r="J104" s="12">
         <v>2</v>
@@ -4286,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M104" s="12">
         <v>0</v>
@@ -4308,11 +4333,11 @@
       <c r="G105" s="12">
         <v>250</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I105" s="12">
-        <v>6</v>
+      <c r="H105" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="16">
+        <v>9</v>
       </c>
       <c r="J105" s="12">
         <v>2</v>
@@ -4321,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M105" s="12">
         <v>0</v>
@@ -4343,11 +4368,11 @@
       <c r="G106" s="12">
         <v>100</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I106" s="12">
-        <v>6</v>
+      <c r="H106" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="16">
+        <v>9</v>
       </c>
       <c r="J106" s="12">
         <v>2</v>
@@ -4356,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M106" s="12">
         <v>0</v>
@@ -4378,11 +4403,11 @@
       <c r="G107" s="12">
         <v>150</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="12">
-        <v>6</v>
+      <c r="H107" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="16">
+        <v>9</v>
       </c>
       <c r="J107" s="12">
         <v>2</v>
@@ -4391,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M107" s="12">
         <v>0</v>
@@ -4413,11 +4438,11 @@
       <c r="G108" s="12">
         <v>250</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I108" s="12">
-        <v>6</v>
+      <c r="H108" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="16">
+        <v>9</v>
       </c>
       <c r="J108" s="12">
         <v>2</v>
@@ -4426,7 +4451,7 @@
         <v>4</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M108" s="12">
         <v>0</v>
@@ -4448,11 +4473,11 @@
       <c r="G109" s="12">
         <v>300</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I109" s="12">
-        <v>6</v>
+      <c r="H109" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="16">
+        <v>9</v>
       </c>
       <c r="J109" s="12">
         <v>2</v>
@@ -4461,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M109" s="12">
         <v>0</v>
@@ -4483,11 +4508,11 @@
       <c r="G110" s="12">
         <v>150</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I110" s="12">
-        <v>6</v>
+      <c r="H110" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="16">
+        <v>9</v>
       </c>
       <c r="J110" s="12">
         <v>2</v>
@@ -4496,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M110" s="12">
         <v>0</v>
@@ -4518,11 +4543,11 @@
       <c r="G111" s="12">
         <v>250</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I111" s="12">
-        <v>6</v>
+      <c r="H111" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="16">
+        <v>9</v>
       </c>
       <c r="J111" s="12">
         <v>2</v>
@@ -4531,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M111" s="12">
         <v>0</v>
@@ -4553,11 +4578,11 @@
       <c r="G112" s="12">
         <v>300</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I112" s="12">
-        <v>6</v>
+      <c r="H112" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="16">
+        <v>9</v>
       </c>
       <c r="J112" s="12">
         <v>2</v>
@@ -4566,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M112" s="12">
         <v>0</v>
@@ -4588,11 +4613,11 @@
       <c r="G113" s="12">
         <v>500</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I113" s="12">
-        <v>6</v>
+      <c r="H113" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="16">
+        <v>9</v>
       </c>
       <c r="J113" s="12">
         <v>2</v>
@@ -4601,7 +4626,7 @@
         <v>4</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M113" s="12">
         <v>0</v>
@@ -4623,11 +4648,11 @@
       <c r="G114" s="12">
         <v>50</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I114" s="12">
-        <v>7</v>
+      <c r="H114" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" s="18">
+        <v>10</v>
       </c>
       <c r="J114" s="12">
         <v>2</v>
@@ -4636,7 +4661,7 @@
         <v>3</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M114" s="12">
         <v>0</v>
@@ -4658,11 +4683,11 @@
       <c r="G115" s="12">
         <v>100</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I115" s="12">
-        <v>7</v>
+      <c r="H115" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I115" s="18">
+        <v>10</v>
       </c>
       <c r="J115" s="12">
         <v>2</v>
@@ -4671,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M115" s="12">
         <v>0</v>
@@ -4693,11 +4718,11 @@
       <c r="G116" s="12">
         <v>150</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I116" s="12">
-        <v>7</v>
+      <c r="H116" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" s="18">
+        <v>10</v>
       </c>
       <c r="J116" s="12">
         <v>2</v>
@@ -4706,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M116" s="12">
         <v>0</v>
@@ -4728,11 +4753,11 @@
       <c r="G117" s="12">
         <v>250</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I117" s="12">
-        <v>7</v>
+      <c r="H117" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" s="18">
+        <v>10</v>
       </c>
       <c r="J117" s="12">
         <v>2</v>
@@ -4741,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M117" s="12">
         <v>0</v>
@@ -4763,11 +4788,11 @@
       <c r="G118" s="12">
         <v>100</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I118" s="12">
-        <v>7</v>
+      <c r="H118" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" s="18">
+        <v>10</v>
       </c>
       <c r="J118" s="12">
         <v>2</v>
@@ -4776,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M118" s="12">
         <v>0</v>
@@ -4798,11 +4823,11 @@
       <c r="G119" s="12">
         <v>150</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I119" s="12">
-        <v>7</v>
+      <c r="H119" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" s="18">
+        <v>10</v>
       </c>
       <c r="J119" s="12">
         <v>2</v>
@@ -4811,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M119" s="12">
         <v>0</v>
@@ -4833,11 +4858,11 @@
       <c r="G120" s="12">
         <v>250</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I120" s="12">
-        <v>7</v>
+      <c r="H120" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I120" s="18">
+        <v>10</v>
       </c>
       <c r="J120" s="12">
         <v>2</v>
@@ -4846,7 +4871,7 @@
         <v>3</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M120" s="12">
         <v>0</v>
@@ -4868,11 +4893,11 @@
       <c r="G121" s="12">
         <v>300</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I121" s="12">
-        <v>7</v>
+      <c r="H121" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="18">
+        <v>10</v>
       </c>
       <c r="J121" s="12">
         <v>2</v>
@@ -4881,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M121" s="12">
         <v>0</v>
@@ -4903,11 +4928,11 @@
       <c r="G122" s="12">
         <v>150</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I122" s="12">
-        <v>7</v>
+      <c r="H122" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" s="18">
+        <v>10</v>
       </c>
       <c r="J122" s="12">
         <v>2</v>
@@ -4916,7 +4941,7 @@
         <v>3</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M122" s="12">
         <v>0</v>
@@ -4938,11 +4963,11 @@
       <c r="G123" s="12">
         <v>250</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I123" s="12">
-        <v>7</v>
+      <c r="H123" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I123" s="18">
+        <v>10</v>
       </c>
       <c r="J123" s="12">
         <v>2</v>
@@ -4951,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M123" s="12">
         <v>0</v>
@@ -4973,11 +4998,11 @@
       <c r="G124" s="12">
         <v>300</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I124" s="12">
-        <v>7</v>
+      <c r="H124" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" s="18">
+        <v>10</v>
       </c>
       <c r="J124" s="12">
         <v>2</v>
@@ -4986,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M124" s="12">
         <v>0</v>
@@ -5008,11 +5033,11 @@
       <c r="G125" s="12">
         <v>500</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I125" s="12">
-        <v>7</v>
+      <c r="H125" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" s="18">
+        <v>10</v>
       </c>
       <c r="J125" s="12">
         <v>2</v>
@@ -5021,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M125" s="12">
         <v>0</v>
@@ -5043,11 +5068,11 @@
       <c r="G126" s="12">
         <v>50</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I126" s="12">
-        <v>8</v>
+      <c r="H126" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="16">
+        <v>11</v>
       </c>
       <c r="J126" s="12">
         <v>2</v>
@@ -5056,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M126" s="12">
         <v>0</v>
@@ -5078,11 +5103,11 @@
       <c r="G127" s="12">
         <v>100</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I127" s="12">
-        <v>8</v>
+      <c r="H127" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" s="16">
+        <v>11</v>
       </c>
       <c r="J127" s="12">
         <v>2</v>
@@ -5091,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M127" s="12">
         <v>0</v>
@@ -5113,11 +5138,11 @@
       <c r="G128" s="12">
         <v>150</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I128" s="12">
-        <v>8</v>
+      <c r="H128" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" s="16">
+        <v>11</v>
       </c>
       <c r="J128" s="12">
         <v>2</v>
@@ -5126,7 +5151,7 @@
         <v>4</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M128" s="12">
         <v>0</v>
@@ -5148,11 +5173,11 @@
       <c r="G129" s="12">
         <v>250</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I129" s="12">
-        <v>8</v>
+      <c r="H129" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I129" s="16">
+        <v>11</v>
       </c>
       <c r="J129" s="12">
         <v>2</v>
@@ -5161,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M129" s="12">
         <v>0</v>
@@ -5183,11 +5208,11 @@
       <c r="G130" s="12">
         <v>100</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I130" s="12">
-        <v>8</v>
+      <c r="H130" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I130" s="16">
+        <v>11</v>
       </c>
       <c r="J130" s="12">
         <v>2</v>
@@ -5196,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M130" s="12">
         <v>0</v>
@@ -5218,11 +5243,11 @@
       <c r="G131" s="12">
         <v>150</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I131" s="12">
-        <v>8</v>
+      <c r="H131" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I131" s="16">
+        <v>11</v>
       </c>
       <c r="J131" s="12">
         <v>2</v>
@@ -5231,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M131" s="12">
         <v>0</v>
@@ -5253,11 +5278,11 @@
       <c r="G132" s="12">
         <v>250</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I132" s="12">
-        <v>8</v>
+      <c r="H132" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I132" s="16">
+        <v>11</v>
       </c>
       <c r="J132" s="12">
         <v>2</v>
@@ -5266,7 +5291,7 @@
         <v>4</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M132" s="12">
         <v>0</v>
@@ -5288,11 +5313,11 @@
       <c r="G133" s="12">
         <v>300</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I133" s="12">
-        <v>8</v>
+      <c r="H133" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I133" s="16">
+        <v>11</v>
       </c>
       <c r="J133" s="12">
         <v>2</v>
@@ -5301,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M133" s="12">
         <v>0</v>
@@ -5323,11 +5348,11 @@
       <c r="G134" s="12">
         <v>150</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I134" s="12">
-        <v>8</v>
+      <c r="H134" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I134" s="16">
+        <v>11</v>
       </c>
       <c r="J134" s="12">
         <v>2</v>
@@ -5336,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M134" s="12">
         <v>0</v>
@@ -5358,11 +5383,11 @@
       <c r="G135" s="12">
         <v>250</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I135" s="12">
-        <v>8</v>
+      <c r="H135" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I135" s="16">
+        <v>11</v>
       </c>
       <c r="J135" s="12">
         <v>2</v>
@@ -5371,7 +5396,7 @@
         <v>4</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M135" s="12">
         <v>0</v>
@@ -5393,11 +5418,11 @@
       <c r="G136" s="12">
         <v>300</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I136" s="12">
-        <v>8</v>
+      <c r="H136" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I136" s="16">
+        <v>11</v>
       </c>
       <c r="J136" s="12">
         <v>2</v>
@@ -5406,7 +5431,7 @@
         <v>4</v>
       </c>
       <c r="L136" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M136" s="12">
         <v>0</v>
@@ -5428,11 +5453,11 @@
       <c r="G137" s="12">
         <v>500</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I137" s="12">
-        <v>8</v>
+      <c r="H137" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I137" s="16">
+        <v>11</v>
       </c>
       <c r="J137" s="12">
         <v>2</v>
@@ -5441,7 +5466,7 @@
         <v>4</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M137" s="12">
         <v>0</v>

--- a/Excel/WeaponWordBarsConfig.xlsx
+++ b/Excel/WeaponWordBarsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0D962-FA95-4649-8BA8-773090BF5888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED19E07-938A-4BEA-A0B4-F2C06453DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -3103,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G70" s="12">
         <v>150</v>
@@ -3841,7 +3841,7 @@
         <v>210</v>
       </c>
       <c r="G91" s="12">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>34</v>
